--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAF507-9525-4DF3-93CA-4DB24D1BF41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1091E5-62F8-4105-9917-8B46B3C6CD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12900" yWindow="2745" windowWidth="34230" windowHeight="11820" tabRatio="923" activeTab="2" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="923" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="136">
   <si>
     <t>Have a Child</t>
   </si>
@@ -363,12 +363,6 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>Date modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This file contains regression estimates used by processes F1a(probability of having a child if in continuous education) and F1b (probability of having a child if not in education). Worksheets prefixed by UK_ contain the estimates in a format readable by the simulation; other files contain the estimates and variance-covariance matrices in a format that is easier to read for the modeller. </t>
-  </si>
-  <si>
     <t>1bL.ydses_c5</t>
   </si>
   <si>
@@ -422,6 +416,39 @@
   <si>
     <t>ditfr</t>
   </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Model parameters governing projection of demand for social care</t>
+  </si>
+  <si>
+    <t>First edit:</t>
+  </si>
+  <si>
+    <t>Last edit:</t>
+  </si>
+  <si>
+    <t>13/10/2020 (PB)</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>F1a</t>
+  </si>
+  <si>
+    <t>F1b</t>
+  </si>
+  <si>
+    <t>probability of having a child if in continuous education</t>
+  </si>
+  <si>
+    <t>probability of having a child if not in education</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +458,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +494,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -491,7 +524,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -561,15 +594,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,6 +609,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBBFFEE-8A7E-4E9C-B001-BC7A60D7BCFA}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,90 +940,55 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32">
-        <v>44117</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1095,7 +1085,7 @@
         <v>62</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>63</v>
@@ -1435,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="15">
         <v>-3.2779562768217151E-7</v>
@@ -3235,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AB818-AA51-44DD-B5F0-886E9C5C0B09}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5984,16 +5974,16 @@
         <v>90</v>
       </c>
       <c r="S1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" t="s">
         <v>115</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>116</v>
-      </c>
-      <c r="U1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" t="s">
-        <v>118</v>
       </c>
       <c r="W1" t="s">
         <v>22</v>
@@ -7137,7 +7127,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="30">
         <v>-9.6741944726603066E-2</v>
@@ -7208,7 +7198,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" s="30">
         <v>-6.0872854069962089E-3</v>
@@ -7279,7 +7269,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="30">
         <v>-0.15260607200300971</v>
@@ -7350,7 +7340,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="30">
         <v>-3.5939579858521337E-2</v>
@@ -7516,31 +7506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7964,31 +7954,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8411,7 +8401,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8892,7 +8882,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>52</v>
@@ -8916,7 +8906,7 @@
         <v>57</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>58</v>
@@ -9092,7 +9082,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -9516,7 +9506,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -9850,7 +9840,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>61</v>
@@ -9862,7 +9852,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>63</v>
@@ -9871,7 +9861,7 @@
         <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>52</v>
@@ -9895,7 +9885,7 @@
         <v>57</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>58</v>
@@ -9922,7 +9912,7 @@
         <v>72</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>73</v>
@@ -10162,7 +10152,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -10590,7 +10580,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -10911,7 +10901,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -11767,7 +11757,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -12730,7 +12720,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -13500,31 +13490,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -14013,7 +14003,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -14024,7 +14014,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="18">
         <v>-9.6741944726603066E-2</v>
@@ -14047,7 +14037,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" s="18">
         <v>-6.0872854069962089E-3</v>
@@ -14070,7 +14060,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="18">
         <v>-0.15260607200300971</v>
@@ -14093,7 +14083,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B33" s="18">
         <v>-3.5939579858521337E-2</v>
@@ -14147,7 +14137,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" s="28">
         <v>977.41</v>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EADFC-F221-42C7-95CD-3DB1665FE0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542B6FD-5C04-4671-BBCE-FAC574280E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" activeTab="4" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
   <si>
     <t>Have a Child</t>
   </si>
@@ -324,12 +324,6 @@
   </si>
   <si>
     <t>F1b</t>
-  </si>
-  <si>
-    <t>probability of having a child if in continuous education</t>
-  </si>
-  <si>
-    <t>probability of having a child if not in education</t>
   </si>
   <si>
     <t>Age</t>
@@ -634,6 +628,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,10 +641,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,9 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBBFFEE-8A7E-4E9C-B001-BC7A60D7BCFA}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -990,10 +982,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1001,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,16 +1016,18 @@
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>94</v>
+      <c r="B7" s="1" t="str">
+        <f>'Process F1a - UK'!A1</f>
+        <v>Probit regression estimates for having a child for women aged 18-44 in continuous education</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>95</v>
+      <c r="B8" s="1" t="str">
+        <f>'Process F1b - UK'!A1</f>
+        <v>Probit regression estimates for having a child for women aged 18-44 not in continuous education</v>
       </c>
     </row>
   </sheetData>
@@ -1045,9 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30592DDE-4BE8-4F4D-A8EA-193601ACEF35}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1078,13 +1070,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>106</v>
       </c>
       <c r="K1" s="31" t="s">
         <v>57</v>
@@ -1285,7 +1277,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="38">
         <v>0.53671399120747232</v>
@@ -1323,7 +1315,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="38">
         <v>2.2782839175763558</v>
@@ -1361,7 +1353,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="38">
         <v>-2.1080834107145261</v>
@@ -1482,9 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AB818-AA51-44DD-B5F0-886E9C5C0B09}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AI34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1524,28 +1514,28 @@
         <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>58</v>
@@ -1603,7 +1593,7 @@
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="52">
         <v>6.5709510699718338E-2</v>
       </c>
       <c r="C2" s="39">
@@ -1710,7 +1700,7 @@
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="52">
         <v>-2.3170837213301377E-3</v>
       </c>
       <c r="C3" s="39">
@@ -1817,7 +1807,7 @@
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="52">
         <v>-0.33029736363471729</v>
       </c>
       <c r="C4" s="39">
@@ -1924,7 +1914,7 @@
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="52">
         <v>-0.35426681142985922</v>
       </c>
       <c r="C5" s="39">
@@ -2031,7 +2021,7 @@
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="52">
         <v>-0.27570851288760567</v>
       </c>
       <c r="C6" s="39">
@@ -2138,7 +2128,7 @@
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="52">
         <v>-7.0193992762373425E-2</v>
       </c>
       <c r="C7" s="39">
@@ -2245,7 +2235,7 @@
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="52">
         <v>-0.28192176752934023</v>
       </c>
       <c r="C8" s="39">
@@ -2352,7 +2342,7 @@
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="52">
         <v>0.82356441482310672</v>
       </c>
       <c r="C9" s="39">
@@ -2457,9 +2447,9 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="55">
+        <v>102</v>
+      </c>
+      <c r="B10" s="52">
         <v>6.7283548823906233E-2</v>
       </c>
       <c r="C10" s="39">
@@ -2564,9 +2554,9 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="55">
+        <v>103</v>
+      </c>
+      <c r="B11" s="52">
         <v>0.10515520323572274</v>
       </c>
       <c r="C11" s="39">
@@ -2671,9 +2661,9 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="55">
+        <v>112</v>
+      </c>
+      <c r="B12" s="52">
         <v>0.18393935487452034</v>
       </c>
       <c r="C12" s="39">
@@ -2778,9 +2768,9 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="55">
+        <v>109</v>
+      </c>
+      <c r="B13" s="52">
         <v>0.26883169233644799</v>
       </c>
       <c r="C13" s="39">
@@ -2885,9 +2875,9 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="55">
+        <v>104</v>
+      </c>
+      <c r="B14" s="52">
         <v>-0.68427458388484175</v>
       </c>
       <c r="C14" s="39">
@@ -2992,9 +2982,9 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="55">
+        <v>113</v>
+      </c>
+      <c r="B15" s="52">
         <v>-0.57800611766146326</v>
       </c>
       <c r="C15" s="39">
@@ -3101,7 +3091,7 @@
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="52">
         <v>0.13333148680987397</v>
       </c>
       <c r="C16" s="39">
@@ -3208,7 +3198,7 @@
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="52">
         <v>0.25194167054653288</v>
       </c>
       <c r="C17" s="39">
@@ -3315,7 +3305,7 @@
       <c r="A18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="52">
         <v>-0.18083600461850163</v>
       </c>
       <c r="C18" s="39">
@@ -3422,7 +3412,7 @@
       <c r="A19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="52">
         <v>-6.8801738621908026E-2</v>
       </c>
       <c r="C19" s="39">
@@ -3529,7 +3519,7 @@
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="52">
         <v>2.7156718711365056E-3</v>
       </c>
       <c r="C20" s="39">
@@ -3636,7 +3626,7 @@
       <c r="A21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="52">
         <v>-0.40659524048855933</v>
       </c>
       <c r="C21" s="39">
@@ -3743,7 +3733,7 @@
       <c r="A22" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="52">
         <v>-0.1510852680398726</v>
       </c>
       <c r="C22" s="39">
@@ -3850,7 +3840,7 @@
       <c r="A23" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="52">
         <v>-0.29290410782400789</v>
       </c>
       <c r="C23" s="39">
@@ -3957,7 +3947,7 @@
       <c r="A24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="55">
+      <c r="B24" s="52">
         <v>-6.5548992743657108E-2</v>
       </c>
       <c r="C24" s="39">
@@ -4064,7 +4054,7 @@
       <c r="A25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="52">
         <v>-0.2230384287961393</v>
       </c>
       <c r="C25" s="39">
@@ -4171,7 +4161,7 @@
       <c r="A26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="52">
         <v>-1.0854357526938451E-2</v>
       </c>
       <c r="C26" s="39">
@@ -4278,7 +4268,7 @@
       <c r="A27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="52">
         <v>7.2868636194702808E-3</v>
       </c>
       <c r="C27" s="39">
@@ -4385,7 +4375,7 @@
       <c r="A28" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="52">
         <v>9.5046410148126679E-3</v>
       </c>
       <c r="C28" s="39">
@@ -4492,7 +4482,7 @@
       <c r="A29" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="52">
         <v>-1.2738764094608114E-2</v>
       </c>
       <c r="C29" s="39">
@@ -4599,7 +4589,7 @@
       <c r="A30" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="52">
         <v>-3.6198882443431286E-2</v>
       </c>
       <c r="C30" s="39">
@@ -4706,7 +4696,7 @@
       <c r="A31" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="52">
         <v>-0.20160649267042377</v>
       </c>
       <c r="C31" s="39">
@@ -4813,7 +4803,7 @@
       <c r="A32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="52">
         <v>-0.22608342763522951</v>
       </c>
       <c r="C32" s="39">
@@ -4920,7 +4910,7 @@
       <c r="A33" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="52">
         <v>1.4678042124322448E-3</v>
       </c>
       <c r="C33" s="39">
@@ -5027,7 +5017,7 @@
       <c r="A34" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="52">
         <v>-3.5628548327620774E-2</v>
       </c>
       <c r="C34" s="39">
@@ -5139,9 +5129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A453670F-6777-4D00-B96C-1A8D1BB5E25A}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:R13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5152,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5178,15 +5166,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="38">
         <v>-0.33960670941575699</v>
@@ -5201,7 +5189,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5210,7 +5198,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="38">
         <v>0.88479978427652239</v>
@@ -5225,7 +5213,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="38">
         <v>6.1219988382108001E-2</v>
@@ -5275,7 +5263,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -5284,7 +5272,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="38">
         <v>0.53671399120747232</v>
@@ -5299,7 +5287,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="38">
         <v>2.2782839175763558</v>
@@ -5329,7 +5317,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="38">
         <v>0.89765911136964793</v>
@@ -5357,18 +5345,18 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="5">
-        <v>1164</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="6">
-        <v>17.98</v>
+        <v>0.48820000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5376,7 +5364,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="46">
-        <v>3.5400000000000001E-2</v>
+        <v>0.44319999999999998</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -5396,7 +5384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53607F17-5127-45F3-B4CE-11CD897B185B}">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5407,7 +5397,7 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5433,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="36"/>
@@ -5912,7 +5902,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -5955,7 +5945,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="35">
         <v>6.7283548823906233E-2</v>
@@ -6004,7 +5994,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="36">
         <v>0.10515520323572274</v>
@@ -6053,7 +6043,7 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="36">
         <v>0.18393935487452034</v>
@@ -6103,7 +6093,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="35">
         <v>0.26883169233644799</v>
@@ -6152,7 +6142,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -7048,9 +7038,9 @@
         <v>0.85344980919817959</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
@@ -7141,18 +7131,18 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" s="5">
-        <v>1164</v>
+        <v>91913</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" s="6">
-        <v>17.98</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7160,7 +7150,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="46">
-        <v>3.5400000000000001E-2</v>
+        <v>0.28339999999999999</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -8779,31 +8769,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="I1" s="52" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542B6FD-5C04-4671-BBCE-FAC574280E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE61980-DBEF-411D-AFC3-58FA1C1D977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" activeTab="4" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>Have a Child</t>
   </si>
@@ -263,9 +263,6 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>Lagged Partnership Status (Ref = Partnered)</t>
-  </si>
-  <si>
     <t>ITC</t>
   </si>
   <si>
@@ -329,27 +326,12 @@
     <t>Age</t>
   </si>
   <si>
-    <t>lagged household income quintile (ref 1st quintile)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2nd Quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3rd Quintile</t>
-  </si>
-  <si>
-    <t>self-reported health status (ref poor)</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>Lagged single</t>
-  </si>
-  <si>
     <t>Dhe_Fair</t>
   </si>
   <si>
@@ -374,12 +356,6 @@
     <t>Dhe_Excellent</t>
   </si>
   <si>
-    <t>Dcpst_PreviousPartnered</t>
-  </si>
-  <si>
-    <t>Dcpst_PreviousPartnered_L1</t>
-  </si>
-  <si>
     <t>Dhe_VeryGood</t>
   </si>
   <si>
@@ -411,18 +387,26 @@
   </si>
   <si>
     <t>Probit regression estimates for having a child for women aged 18-44 not in continuous education</t>
+  </si>
+  <si>
+    <t>Lagged dummy for any Children Aged 0-2 in the Household</t>
+  </si>
+  <si>
+    <t>Ld_children_2under</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +459,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,7 +520,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -628,9 +616,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6 +625,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -963,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBBFFEE-8A7E-4E9C-B001-BC7A60D7BCFA}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -974,47 +964,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>'Process F1a - UK'!A1</f>
@@ -1023,7 +1013,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="str">
         <f>'Process F1b - UK'!A1</f>
@@ -1039,7 +1029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30592DDE-4BE8-4F4D-A8EA-193601ACEF35}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1058,412 +1050,232 @@
         <v>46</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="31" t="s">
         <v>21</v>
       </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="38">
-        <v>-0.33960670941575699</v>
+        <v>-7.1615589318387324E-2</v>
       </c>
       <c r="C2" s="39">
-        <v>1.560015406102817E-2</v>
+        <v>3.4445985823360619E-3</v>
       </c>
       <c r="D2" s="39">
-        <v>-6.0047000890460722E-2</v>
+        <v>2.6417251443368673E-3</v>
       </c>
       <c r="E2" s="39">
-        <v>4.8327893722125981E-2</v>
+        <v>-2.7911207102912505E-3</v>
       </c>
       <c r="F2" s="39">
-        <v>-7.8516123503967576E-3</v>
+        <v>1.1417180189891279E-2</v>
       </c>
       <c r="G2" s="39">
-        <v>-4.2528032262135432E-2</v>
-      </c>
-      <c r="H2" s="39">
-        <v>-6.0400665029007768E-4</v>
-      </c>
-      <c r="I2" s="39">
-        <v>-8.414174992251694E-2</v>
-      </c>
-      <c r="J2" s="39">
-        <v>5.8926875076127927E-3</v>
-      </c>
-      <c r="K2" s="39">
-        <v>3.982220540497533E-2</v>
-      </c>
-      <c r="L2" s="39">
-        <v>-0.3004809329904552</v>
-      </c>
+        <v>-8.3313291073645698E-2</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" s="38">
-        <v>0.88479978427652239</v>
+        <v>0.16454972073178528</v>
       </c>
       <c r="C3" s="39">
-        <v>-6.0047000890460722E-2</v>
+        <v>2.6417251443368673E-3</v>
       </c>
       <c r="D3" s="39">
-        <v>0.99846269411696076</v>
+        <v>1.2195857011959686E-2</v>
       </c>
       <c r="E3" s="39">
-        <v>0.1906608417446285</v>
+        <v>-1.7270627976761557E-2</v>
       </c>
       <c r="F3" s="39">
-        <v>6.0656966811687987E-2</v>
+        <v>-5.5189035767986751E-3</v>
       </c>
       <c r="G3" s="39">
-        <v>0.63306856164625369</v>
-      </c>
-      <c r="H3" s="39">
-        <v>0.21442067282084781</v>
-      </c>
-      <c r="I3" s="39">
-        <v>0.51314346518078602</v>
-      </c>
-      <c r="J3" s="39">
-        <v>-4.2049502010538031E-2</v>
-      </c>
-      <c r="K3" s="39">
-        <v>4.7544784769290249E-2</v>
-      </c>
-      <c r="L3" s="39">
-        <v>0.19362958743231484</v>
-      </c>
+        <v>-7.0574218094737351E-2</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B4" s="38">
-        <v>6.1219988382108001E-2</v>
+        <v>1.345230453526717</v>
       </c>
       <c r="C4" s="39">
-        <v>4.8327893722125981E-2</v>
+        <v>-2.7911207102912505E-3</v>
       </c>
       <c r="D4" s="39">
-        <v>0.1906608417446285</v>
+        <v>-1.7270627976761557E-2</v>
       </c>
       <c r="E4" s="39">
-        <v>1.1052427058303711</v>
+        <v>0.13409782179564192</v>
       </c>
       <c r="F4" s="39">
-        <v>3.1259561435345903E-2</v>
+        <v>-2.1441716259425911E-2</v>
       </c>
       <c r="G4" s="39">
-        <v>-7.776775193211638E-2</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0.23919311227904558</v>
-      </c>
-      <c r="I4" s="39">
-        <v>-0.15819045444361354</v>
-      </c>
-      <c r="J4" s="39">
-        <v>-0.20134074185884654</v>
-      </c>
-      <c r="K4" s="39">
-        <v>0.43669443049090045</v>
-      </c>
-      <c r="L4" s="39">
-        <v>-1.5426975244690202</v>
-      </c>
+        <v>7.9088722743591355E-2</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B5" s="38">
-        <v>0.24989837356315606</v>
+        <v>-1.7481000009850494</v>
       </c>
       <c r="C5" s="39">
-        <v>-7.8516123503967576E-3</v>
+        <v>1.1417180189891279E-2</v>
       </c>
       <c r="D5" s="39">
-        <v>6.0656966811687987E-2</v>
+        <v>-5.5189035767986751E-3</v>
       </c>
       <c r="E5" s="39">
-        <v>3.1259561435345903E-2</v>
+        <v>-2.1441716259425911E-2</v>
       </c>
       <c r="F5" s="39">
-        <v>5.479945929785747E-2</v>
+        <v>0.13406717178416586</v>
       </c>
       <c r="G5" s="39">
-        <v>6.5234342279989477E-3</v>
-      </c>
-      <c r="H5" s="39">
-        <v>-4.0437003023835912E-3</v>
-      </c>
-      <c r="I5" s="39">
-        <v>6.1232838127128507E-2</v>
-      </c>
-      <c r="J5" s="39">
-        <v>-7.5771256044564805E-2</v>
-      </c>
-      <c r="K5" s="39">
-        <v>9.6755284401344871E-3</v>
-      </c>
-      <c r="L5" s="39">
-        <v>5.8991583695499505E-2</v>
-      </c>
+        <v>-0.3068465158020165</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B6" s="38">
-        <v>1.2380638540009201</v>
+        <v>0.27336927609232048</v>
       </c>
       <c r="C6" s="39">
-        <v>-4.2528032262135432E-2</v>
+        <v>-8.3313291073645698E-2</v>
       </c>
       <c r="D6" s="39">
-        <v>0.63306856164625369</v>
+        <v>-7.0574218094737351E-2</v>
       </c>
       <c r="E6" s="39">
-        <v>-7.776775193211638E-2</v>
+        <v>7.9088722743591355E-2</v>
       </c>
       <c r="F6" s="39">
-        <v>6.5234342279989477E-3</v>
+        <v>-0.3068465158020165</v>
       </c>
       <c r="G6" s="39">
-        <v>0.88026127404890064</v>
-      </c>
-      <c r="H6" s="39">
-        <v>-2.3072568141166448E-2</v>
-      </c>
-      <c r="I6" s="39">
-        <v>0.32756270908609741</v>
-      </c>
-      <c r="J6" s="39">
-        <v>-4.594216981318372E-2</v>
-      </c>
-      <c r="K6" s="39">
-        <v>0.21994361646910088</v>
-      </c>
-      <c r="L6" s="39">
-        <v>3.8525604566741478E-2</v>
-      </c>
+        <v>2.0609442643847387</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="38">
-        <v>0.53671399120747232</v>
-      </c>
-      <c r="C7" s="39">
-        <v>-6.0400665029007768E-4</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.21442067282084781</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.23919311227904558</v>
-      </c>
-      <c r="F7" s="39">
-        <v>-4.0437003023835912E-3</v>
-      </c>
-      <c r="G7" s="39">
-        <v>-2.3072568141166448E-2</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0.82924755313159348</v>
-      </c>
-      <c r="I7" s="39">
-        <v>0.25031905507303248</v>
-      </c>
-      <c r="J7" s="39">
-        <v>-0.12847060592585285</v>
-      </c>
-      <c r="K7" s="39">
-        <v>8.2185412253528795E-2</v>
-      </c>
-      <c r="L7" s="39">
-        <v>-0.30548661278020284</v>
-      </c>
+      <c r="A7" s="34"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="38">
-        <v>2.2782839175763558</v>
-      </c>
-      <c r="C8" s="39">
-        <v>-8.414174992251694E-2</v>
-      </c>
-      <c r="D8" s="39">
-        <v>0.51314346518078602</v>
-      </c>
-      <c r="E8" s="39">
-        <v>-0.15819045444361354</v>
-      </c>
-      <c r="F8" s="39">
-        <v>6.1232838127128507E-2</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0.32756270908609741</v>
-      </c>
-      <c r="H8" s="39">
-        <v>0.25031905507303248</v>
-      </c>
-      <c r="I8" s="39">
-        <v>0.94816534489625448</v>
-      </c>
-      <c r="J8" s="39">
-        <v>-0.32297210664760656</v>
-      </c>
-      <c r="K8" s="39">
-        <v>-1.956901469685679E-2</v>
-      </c>
-      <c r="L8" s="39">
-        <v>1.2437012903805549</v>
-      </c>
+      <c r="A8" s="34"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="38">
-        <v>-2.1080834107145261</v>
-      </c>
-      <c r="C9" s="39">
-        <v>5.8926875076127927E-3</v>
-      </c>
-      <c r="D9" s="39">
-        <v>-4.2049502010538031E-2</v>
-      </c>
-      <c r="E9" s="39">
-        <v>-0.20134074185884654</v>
-      </c>
-      <c r="F9" s="39">
-        <v>-7.5771256044564805E-2</v>
-      </c>
-      <c r="G9" s="39">
-        <v>-4.594216981318372E-2</v>
-      </c>
-      <c r="H9" s="39">
-        <v>-0.12847060592585285</v>
-      </c>
-      <c r="I9" s="39">
-        <v>-0.32297210664760656</v>
-      </c>
-      <c r="J9" s="39">
-        <v>0.68914516486480226</v>
-      </c>
-      <c r="K9" s="39">
-        <v>-0.4055997529925951</v>
-      </c>
-      <c r="L9" s="39">
-        <v>7.7194716793190343E-2</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="38">
-        <v>0.89765911136964793</v>
-      </c>
-      <c r="C10" s="39">
-        <v>3.982220540497533E-2</v>
-      </c>
-      <c r="D10" s="39">
-        <v>4.7544784769290249E-2</v>
-      </c>
-      <c r="E10" s="39">
-        <v>0.43669443049090045</v>
-      </c>
-      <c r="F10" s="39">
-        <v>9.6755284401344871E-3</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0.21994361646910088</v>
-      </c>
-      <c r="H10" s="39">
-        <v>8.2185412253528795E-2</v>
-      </c>
-      <c r="I10" s="39">
-        <v>-1.956901469685679E-2</v>
-      </c>
-      <c r="J10" s="39">
-        <v>-0.4055997529925951</v>
-      </c>
-      <c r="K10" s="39">
-        <v>0.80715088530719814</v>
-      </c>
-      <c r="L10" s="39">
-        <v>-1.4021620486552662</v>
-      </c>
+      <c r="A10" s="34"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="38">
-        <v>5.9587439558141169</v>
-      </c>
-      <c r="C11" s="39">
-        <v>-0.3004809329904552</v>
-      </c>
-      <c r="D11" s="39">
-        <v>0.19362958743231484</v>
-      </c>
-      <c r="E11" s="39">
-        <v>-1.5426975244690202</v>
-      </c>
-      <c r="F11" s="39">
-        <v>5.8991583695499505E-2</v>
-      </c>
-      <c r="G11" s="39">
-        <v>3.8525604566741478E-2</v>
-      </c>
-      <c r="H11" s="39">
-        <v>-0.30548661278020284</v>
-      </c>
-      <c r="I11" s="39">
-        <v>1.2437012903805549</v>
-      </c>
-      <c r="J11" s="39">
-        <v>7.7194716793190343E-2</v>
-      </c>
-      <c r="K11" s="39">
-        <v>-1.4021620486552662</v>
-      </c>
-      <c r="L11" s="39">
-        <v>7.4384355882674811</v>
-      </c>
+      <c r="A11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,7 +1286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AB818-AA51-44DD-B5F0-886E9C5C0B09}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1496,3629 +1310,2653 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="52">
-        <v>6.5709510699718338E-2</v>
+      <c r="B2" s="51">
+        <v>0.23747544743764953</v>
       </c>
       <c r="C2" s="39">
-        <v>9.1493152206412903E-4</v>
+        <v>5.1489969491190935E-4</v>
       </c>
       <c r="D2" s="39">
-        <v>-1.3425977044440089E-5</v>
+        <v>-7.8840013535164821E-6</v>
       </c>
       <c r="E2" s="39">
-        <v>-5.0561653390436122E-5</v>
+        <v>1.2607847842346551E-5</v>
       </c>
       <c r="F2" s="39">
-        <v>-1.4252118634795925E-4</v>
+        <v>-1.3474470275267421E-4</v>
       </c>
       <c r="G2" s="39">
-        <v>-1.5952004057037368E-4</v>
+        <v>3.7871285826365482E-5</v>
       </c>
       <c r="H2" s="39">
-        <v>-1.3371835542473447E-4</v>
+        <v>1.0508316577486992E-4</v>
       </c>
       <c r="I2" s="39">
-        <v>-1.218349434616026E-4</v>
+        <v>1.0091775118784024E-4</v>
       </c>
       <c r="J2" s="39">
-        <v>2.8002438220485568E-5</v>
+        <v>1.0187334368333249E-4</v>
       </c>
       <c r="K2" s="39">
-        <v>2.1374077521847668E-5</v>
+        <v>2.8980876826062711E-4</v>
       </c>
       <c r="L2" s="39">
-        <v>1.1960911913836162E-4</v>
+        <v>6.8292380459348233E-8</v>
       </c>
       <c r="M2" s="39">
-        <v>8.4032457276258469E-5</v>
+        <v>-9.445252502787954E-6</v>
       </c>
       <c r="N2" s="39">
-        <v>7.1160327917864754E-5</v>
+        <v>7.7125972827008773E-4</v>
       </c>
       <c r="O2" s="39">
-        <v>1.2831999405043572E-5</v>
+        <v>6.4281105987070482E-5</v>
       </c>
       <c r="P2" s="39">
-        <v>-4.4929368197242636E-7</v>
+        <v>-6.04696997182309E-5</v>
       </c>
       <c r="Q2" s="39">
-        <v>2.3082090133939165E-4</v>
+        <v>5.8650991709385987E-5</v>
       </c>
       <c r="R2" s="39">
-        <v>2.3826955361808122E-5</v>
+        <v>-3.2784034353686674E-6</v>
       </c>
       <c r="S2" s="39">
-        <v>1.283393248306371E-4</v>
+        <v>4.8618331908388849E-5</v>
       </c>
       <c r="T2" s="39">
-        <v>1.4444721172952868E-4</v>
+        <v>6.3250812246989224E-5</v>
       </c>
       <c r="U2" s="39">
-        <v>-4.8957198924147634E-6</v>
+        <v>2.6804092219344638E-5</v>
       </c>
       <c r="V2" s="39">
-        <v>2.7996441308883284E-4</v>
+        <v>8.0464778973090819E-5</v>
       </c>
       <c r="W2" s="39">
-        <v>8.3016458905508204E-5</v>
+        <v>1.3177375460388671E-4</v>
       </c>
       <c r="X2" s="39">
-        <v>-1.4528135172121523E-5</v>
+        <v>2.6492190312752024E-5</v>
       </c>
       <c r="Y2" s="39">
-        <v>1.5658626184247675E-5</v>
+        <v>4.3063852562759842E-5</v>
       </c>
       <c r="Z2" s="39">
-        <v>-1.8126552526082432E-5</v>
+        <v>3.3412906852726618E-5</v>
       </c>
       <c r="AA2" s="39">
-        <v>5.8232638738241194E-5</v>
-      </c>
-      <c r="AB2" s="39">
-        <v>-1.0252855482760677E-5</v>
-      </c>
-      <c r="AC2" s="39">
-        <v>-8.3729089734379918E-5</v>
-      </c>
-      <c r="AD2" s="39">
-        <v>3.8179512698824532E-6</v>
-      </c>
-      <c r="AE2" s="39">
-        <v>9.1186712288314313E-5</v>
-      </c>
-      <c r="AF2" s="39">
-        <v>4.7464070609213455E-6</v>
-      </c>
-      <c r="AG2" s="39">
-        <v>1.0893310911309385E-5</v>
-      </c>
-      <c r="AH2" s="39">
-        <v>2.4096227974624781E-5</v>
-      </c>
-      <c r="AI2" s="39">
-        <v>-1.478986726469779E-2</v>
-      </c>
+        <v>-7.6936857114723034E-3</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="52">
-        <v>-2.3170837213301377E-3</v>
+      <c r="B3" s="51">
+        <v>-4.3968797547861904E-3</v>
       </c>
       <c r="C3" s="39">
-        <v>-1.3425977044440089E-5</v>
+        <v>-7.8840013535164821E-6</v>
       </c>
       <c r="D3" s="39">
-        <v>1.9950581677700676E-7</v>
+        <v>1.2248441565764432E-7</v>
       </c>
       <c r="E3" s="39">
-        <v>7.7882437421448967E-7</v>
+        <v>-3.8978486163370017E-7</v>
       </c>
       <c r="F3" s="39">
-        <v>2.0847948907030126E-6</v>
+        <v>2.301737573490694E-6</v>
       </c>
       <c r="G3" s="39">
-        <v>2.0730385638856582E-6</v>
+        <v>-4.1718053556138063E-7</v>
       </c>
       <c r="H3" s="39">
-        <v>1.5320547843022692E-6</v>
+        <v>-1.3686218088235043E-6</v>
       </c>
       <c r="I3" s="39">
-        <v>1.5847997227142801E-6</v>
+        <v>-1.2496832327318308E-6</v>
       </c>
       <c r="J3" s="39">
-        <v>1.0374760408060689E-7</v>
+        <v>-1.322332723996648E-6</v>
       </c>
       <c r="K3" s="39">
-        <v>-6.4815598776820521E-8</v>
+        <v>-3.7267513292763796E-6</v>
       </c>
       <c r="L3" s="39">
-        <v>-1.5781757304925397E-6</v>
+        <v>2.8529853411125653E-8</v>
       </c>
       <c r="M3" s="39">
-        <v>-9.9224572082487228E-7</v>
+        <v>1.5450097305241524E-7</v>
       </c>
       <c r="N3" s="39">
-        <v>-9.1518501932102476E-7</v>
+        <v>-1.1210915733527362E-5</v>
       </c>
       <c r="O3" s="39">
-        <v>-1.4654455706756522E-7</v>
+        <v>-7.9390197270425293E-7</v>
       </c>
       <c r="P3" s="39">
-        <v>-8.0009318779620349E-8</v>
+        <v>1.1292934240858733E-6</v>
       </c>
       <c r="Q3" s="39">
-        <v>-2.7842440805876293E-6</v>
+        <v>-7.2719867228722109E-7</v>
       </c>
       <c r="R3" s="39">
-        <v>-7.0406714519981962E-7</v>
+        <v>2.6894302944386581E-7</v>
       </c>
       <c r="S3" s="39">
-        <v>-1.6819149693409336E-6</v>
+        <v>-6.1982615698404306E-7</v>
       </c>
       <c r="T3" s="39">
-        <v>-2.0303795448796077E-6</v>
+        <v>-8.9941277489665995E-7</v>
       </c>
       <c r="U3" s="39">
-        <v>9.9058309598670918E-8</v>
+        <v>-2.1997291437571693E-7</v>
       </c>
       <c r="V3" s="39">
-        <v>-3.5430314235689469E-6</v>
+        <v>-1.1037845655556123E-6</v>
       </c>
       <c r="W3" s="39">
-        <v>-9.4376895973550742E-7</v>
+        <v>-1.8853181137715474E-6</v>
       </c>
       <c r="X3" s="39">
-        <v>5.8343999799512854E-7</v>
+        <v>-1.8084122271116109E-7</v>
       </c>
       <c r="Y3" s="39">
-        <v>1.3245796525997123E-8</v>
+        <v>-5.2229097930306379E-7</v>
       </c>
       <c r="Z3" s="39">
-        <v>6.0801766194762017E-7</v>
+        <v>-9.9094521313932815E-8</v>
       </c>
       <c r="AA3" s="39">
-        <v>-7.2322721701724142E-7</v>
-      </c>
-      <c r="AB3" s="39">
-        <v>2.5402616802925194E-7</v>
-      </c>
-      <c r="AC3" s="39">
-        <v>1.3071228764276264E-6</v>
-      </c>
-      <c r="AD3" s="39">
-        <v>1.1876851219207038E-7</v>
-      </c>
-      <c r="AE3" s="39">
-        <v>-1.163721643279234E-6</v>
-      </c>
-      <c r="AF3" s="39">
-        <v>2.337275598974294E-7</v>
-      </c>
-      <c r="AG3" s="39">
-        <v>3.5247901951240986E-8</v>
-      </c>
-      <c r="AH3" s="39">
-        <v>1.9054225922941824E-7</v>
-      </c>
-      <c r="AI3" s="39">
-        <v>2.1199589781929133E-4</v>
-      </c>
+        <v>1.1484788171563251E-4</v>
+      </c>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52">
-        <v>-0.33029736363471729</v>
+        <v>53</v>
+      </c>
+      <c r="B4" s="51">
+        <v>-4.7021305647959553E-2</v>
       </c>
       <c r="C4" s="39">
-        <v>-5.0561653390436122E-5</v>
+        <v>1.2607847842346551E-5</v>
       </c>
       <c r="D4" s="39">
-        <v>7.7882437421448967E-7</v>
+        <v>-3.8978486163370017E-7</v>
       </c>
       <c r="E4" s="39">
-        <v>4.1001734833208802E-3</v>
+        <v>2.3814634504439297E-4</v>
       </c>
       <c r="F4" s="39">
-        <v>2.7695423817912079E-3</v>
+        <v>-2.1758503833066152E-4</v>
       </c>
       <c r="G4" s="39">
-        <v>2.9357679730413811E-3</v>
+        <v>-4.7474758991189735E-5</v>
       </c>
       <c r="H4" s="39">
-        <v>2.9932969055463982E-3</v>
+        <v>8.7078290960883671E-6</v>
       </c>
       <c r="I4" s="39">
-        <v>4.5970004048863128E-6</v>
+        <v>1.7358733144263579E-5</v>
       </c>
       <c r="J4" s="39">
-        <v>-1.3034378205317851E-5</v>
+        <v>5.8161689412599046E-6</v>
       </c>
       <c r="K4" s="39">
-        <v>-1.3605224749272234E-4</v>
+        <v>1.2082505041958289E-4</v>
       </c>
       <c r="L4" s="39">
-        <v>-2.5990811717210421E-4</v>
+        <v>6.2310152117077904E-5</v>
       </c>
       <c r="M4" s="39">
-        <v>-2.0888450962187064E-4</v>
+        <v>-4.0075383170698914E-7</v>
       </c>
       <c r="N4" s="39">
-        <v>-2.6683179999636481E-4</v>
+        <v>-1.4493071789156803E-4</v>
       </c>
       <c r="O4" s="39">
-        <v>1.1314833169273251E-4</v>
+        <v>-1.4352816035221219E-4</v>
       </c>
       <c r="P4" s="39">
-        <v>-3.3194500288139228E-4</v>
+        <v>-4.9703901260645461E-5</v>
       </c>
       <c r="Q4" s="39">
-        <v>5.587791806235217E-4</v>
+        <v>-3.4990897761144507E-5</v>
       </c>
       <c r="R4" s="39">
-        <v>1.0868537242990142E-3</v>
+        <v>-3.7516727188220485E-5</v>
       </c>
       <c r="S4" s="39">
-        <v>1.8405126121393152E-5</v>
+        <v>-1.8420758352099223E-5</v>
       </c>
       <c r="T4" s="39">
-        <v>3.3063539905890346E-4</v>
+        <v>-3.0507308265082749E-5</v>
       </c>
       <c r="U4" s="39">
-        <v>-1.6853621473621693E-6</v>
+        <v>1.4883099542203737E-5</v>
       </c>
       <c r="V4" s="39">
-        <v>5.6072459655473884E-4</v>
+        <v>-1.4131800603822059E-5</v>
       </c>
       <c r="W4" s="39">
-        <v>1.1085620858132688E-3</v>
+        <v>-3.2311639871032085E-5</v>
       </c>
       <c r="X4" s="39">
-        <v>2.1497652604412923E-4</v>
+        <v>-6.9690267018158051E-5</v>
       </c>
       <c r="Y4" s="39">
-        <v>-3.9590119613981635E-5</v>
+        <v>-2.1928938724863989E-5</v>
       </c>
       <c r="Z4" s="39">
-        <v>-1.9870401085065139E-4</v>
+        <v>-5.1534398238936875E-5</v>
       </c>
       <c r="AA4" s="39">
-        <v>-7.7367687160907013E-5</v>
-      </c>
-      <c r="AB4" s="39">
-        <v>-2.1598392203751047E-4</v>
-      </c>
-      <c r="AC4" s="39">
-        <v>-6.5717779834871775E-5</v>
-      </c>
-      <c r="AD4" s="39">
-        <v>-2.0397524819000133E-4</v>
-      </c>
-      <c r="AE4" s="39">
-        <v>-5.8535484994778463E-5</v>
-      </c>
-      <c r="AF4" s="39">
-        <v>-1.0797123445298578E-4</v>
-      </c>
-      <c r="AG4" s="39">
-        <v>6.4850036997066412E-5</v>
-      </c>
-      <c r="AH4" s="39">
-        <v>1.7129593146574884E-5</v>
-      </c>
-      <c r="AI4" s="39">
-        <v>-1.8979798097447532E-3</v>
-      </c>
+        <v>-1.6275266489260978E-4</v>
+      </c>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="52">
-        <v>-0.35426681142985922</v>
+        <v>116</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1.2012933418136744</v>
       </c>
       <c r="C5" s="39">
-        <v>-1.4252118634795925E-4</v>
+        <v>-1.3474470275267421E-4</v>
       </c>
       <c r="D5" s="39">
-        <v>2.0847948907030126E-6</v>
+        <v>2.301737573490694E-6</v>
       </c>
       <c r="E5" s="39">
-        <v>2.7695423817912079E-3</v>
+        <v>-2.1758503833066152E-4</v>
       </c>
       <c r="F5" s="39">
-        <v>4.4897620513861605E-3</v>
+        <v>1.1475616515824007E-3</v>
       </c>
       <c r="G5" s="39">
-        <v>3.4242093554792919E-3</v>
+        <v>-6.6964381777429987E-5</v>
       </c>
       <c r="H5" s="39">
-        <v>3.5712955892530911E-3</v>
+        <v>-2.2703773330226147E-4</v>
       </c>
       <c r="I5" s="39">
-        <v>1.1882726577197315E-4</v>
+        <v>-2.0549528727647305E-4</v>
       </c>
       <c r="J5" s="39">
-        <v>-6.8146378393879728E-5</v>
+        <v>-1.8841535331914721E-4</v>
       </c>
       <c r="K5" s="39">
-        <v>-3.6702224444462719E-4</v>
+        <v>6.4283506255682741E-5</v>
       </c>
       <c r="L5" s="39">
-        <v>-4.4050706689395742E-4</v>
+        <v>7.0944396310298086E-5</v>
       </c>
       <c r="M5" s="39">
-        <v>-4.1073122768806508E-4</v>
+        <v>-7.6628420193595127E-6</v>
       </c>
       <c r="N5" s="39">
-        <v>-4.3101531258771871E-4</v>
+        <v>-2.0005909985378414E-5</v>
       </c>
       <c r="O5" s="39">
-        <v>2.0351157843055258E-4</v>
+        <v>-9.8396592282380365E-5</v>
       </c>
       <c r="P5" s="39">
-        <v>8.2610354797244749E-5</v>
+        <v>4.3817220464670856E-5</v>
       </c>
       <c r="Q5" s="39">
-        <v>9.6110069310354341E-4</v>
+        <v>4.323458374947786E-5</v>
       </c>
       <c r="R5" s="39">
-        <v>9.7869312502858871E-4</v>
+        <v>3.5307767583729914E-5</v>
       </c>
       <c r="S5" s="39">
-        <v>9.6078708132031241E-5</v>
+        <v>6.8203885598864313E-5</v>
       </c>
       <c r="T5" s="39">
-        <v>6.2761627890517251E-4</v>
+        <v>4.1966733674086922E-5</v>
       </c>
       <c r="U5" s="39">
-        <v>-2.6342193358200978E-6</v>
+        <v>-6.245786639365406E-5</v>
       </c>
       <c r="V5" s="39">
-        <v>5.8761493668577124E-4</v>
+        <v>-6.3356491716530104E-6</v>
       </c>
       <c r="W5" s="39">
-        <v>1.3580130987347284E-3</v>
+        <v>2.6571846381807874E-6</v>
       </c>
       <c r="X5" s="39">
-        <v>5.5458697824466597E-5</v>
+        <v>1.9253207243597609E-5</v>
       </c>
       <c r="Y5" s="39">
-        <v>-7.8113127891339001E-5</v>
+        <v>1.5040618447491642E-5</v>
       </c>
       <c r="Z5" s="39">
-        <v>-8.4536652715739712E-5</v>
+        <v>5.3403887991762848E-7</v>
       </c>
       <c r="AA5" s="39">
-        <v>-2.1595941760476907E-5</v>
-      </c>
-      <c r="AB5" s="39">
-        <v>-1.7865530294846515E-4</v>
-      </c>
-      <c r="AC5" s="39">
-        <v>-9.5158901167787663E-6</v>
-      </c>
-      <c r="AD5" s="39">
-        <v>-2.4999423226445216E-4</v>
-      </c>
-      <c r="AE5" s="39">
-        <v>-4.0729471593355712E-5</v>
-      </c>
-      <c r="AF5" s="39">
-        <v>1.2614414125478968E-4</v>
-      </c>
-      <c r="AG5" s="39">
-        <v>1.3406163850721454E-4</v>
-      </c>
-      <c r="AH5" s="39">
-        <v>2.2725391436257845E-4</v>
-      </c>
-      <c r="AI5" s="39">
-        <v>-8.3698179965877202E-4</v>
-      </c>
+        <v>2.3159357036057638E-3</v>
+      </c>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="52">
-        <v>-0.27570851288760567</v>
+        <v>96</v>
+      </c>
+      <c r="B6" s="51">
+        <v>0.14531885180641585</v>
       </c>
       <c r="C6" s="39">
-        <v>-1.5952004057037368E-4</v>
+        <v>3.7871285826365482E-5</v>
       </c>
       <c r="D6" s="39">
-        <v>2.0730385638856582E-6</v>
+        <v>-4.1718053556138063E-7</v>
       </c>
       <c r="E6" s="39">
-        <v>2.9357679730413811E-3</v>
+        <v>-4.7474758991189735E-5</v>
       </c>
       <c r="F6" s="39">
-        <v>3.4242093554792919E-3</v>
+        <v>-6.6964381777429987E-5</v>
       </c>
       <c r="G6" s="39">
-        <v>4.7606578833057026E-3</v>
+        <v>1.0864923651238072E-2</v>
       </c>
       <c r="H6" s="39">
-        <v>3.9986019961383984E-3</v>
+        <v>8.3380467468109065E-3</v>
       </c>
       <c r="I6" s="39">
-        <v>1.8957083492317719E-4</v>
+        <v>8.377590457329177E-3</v>
       </c>
       <c r="J6" s="39">
-        <v>-1.1611652522059337E-4</v>
+        <v>8.3879744981974133E-3</v>
       </c>
       <c r="K6" s="39">
-        <v>-6.0438264911192175E-4</v>
+        <v>1.3250121668813113E-4</v>
       </c>
       <c r="L6" s="39">
-        <v>-6.3343531658465574E-4</v>
+        <v>-2.2840363672087252E-4</v>
       </c>
       <c r="M6" s="39">
-        <v>-6.4011245717876021E-4</v>
+        <v>-3.7999495822221212E-6</v>
       </c>
       <c r="N6" s="39">
-        <v>-6.9955294188343386E-4</v>
+        <v>-8.0041552436380808E-6</v>
       </c>
       <c r="O6" s="39">
-        <v>2.0278568324581746E-4</v>
+        <v>3.9080075501688903E-4</v>
       </c>
       <c r="P6" s="39">
-        <v>2.5406772287606458E-4</v>
+        <v>-1.2080746894496544E-4</v>
       </c>
       <c r="Q6" s="39">
-        <v>1.1409292524726142E-3</v>
+        <v>-2.0659928564718127E-4</v>
       </c>
       <c r="R6" s="39">
-        <v>1.1720048066797765E-3</v>
+        <v>-1.2366210894922255E-4</v>
       </c>
       <c r="S6" s="39">
-        <v>2.41954812379697E-4</v>
+        <v>-2.77153452643593E-4</v>
       </c>
       <c r="T6" s="39">
-        <v>8.4575535056037512E-4</v>
+        <v>-5.6926578833782493E-4</v>
       </c>
       <c r="U6" s="39">
-        <v>-8.6727800569172679E-6</v>
+        <v>-2.0244397190521306E-4</v>
       </c>
       <c r="V6" s="39">
-        <v>9.1600939317752826E-4</v>
+        <v>-2.5211622026731517E-4</v>
       </c>
       <c r="W6" s="39">
-        <v>1.477140122395566E-3</v>
+        <v>2.0902144930780428E-5</v>
       </c>
       <c r="X6" s="39">
-        <v>1.2157646435716028E-4</v>
+        <v>-5.8422338743770088E-4</v>
       </c>
       <c r="Y6" s="39">
-        <v>-2.1522574184548162E-5</v>
+        <v>-1.1601794876509985E-4</v>
       </c>
       <c r="Z6" s="39">
-        <v>-9.6272317087067868E-5</v>
+        <v>-7.4900699838965565E-5</v>
       </c>
       <c r="AA6" s="39">
-        <v>4.1468271906189638E-6</v>
-      </c>
-      <c r="AB6" s="39">
-        <v>-9.2620105888368567E-5</v>
-      </c>
-      <c r="AC6" s="39">
-        <v>2.0562343318211382E-5</v>
-      </c>
-      <c r="AD6" s="39">
-        <v>-2.1428529525290311E-4</v>
-      </c>
-      <c r="AE6" s="39">
-        <v>7.7203629468480459E-6</v>
-      </c>
-      <c r="AF6" s="39">
-        <v>1.8893423234349848E-4</v>
-      </c>
-      <c r="AG6" s="39">
-        <v>1.7755542148847929E-4</v>
-      </c>
-      <c r="AH6" s="39">
-        <v>1.8933409528611156E-4</v>
-      </c>
-      <c r="AI6" s="39">
-        <v>-2.0384856293633249E-4</v>
-      </c>
+        <v>-8.7147350439445801E-3</v>
+      </c>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="52">
-        <v>-7.0193992762373425E-2</v>
+        <v>97</v>
+      </c>
+      <c r="B7" s="51">
+        <v>0.12760627358722904</v>
       </c>
       <c r="C7" s="39">
-        <v>-1.3371835542473447E-4</v>
+        <v>1.0508316577486992E-4</v>
       </c>
       <c r="D7" s="39">
-        <v>1.5320547843022692E-6</v>
+        <v>-1.3686218088235043E-6</v>
       </c>
       <c r="E7" s="39">
-        <v>2.9932969055463982E-3</v>
+        <v>8.7078290960883671E-6</v>
       </c>
       <c r="F7" s="39">
-        <v>3.5712955892530911E-3</v>
+        <v>-2.2703773330226147E-4</v>
       </c>
       <c r="G7" s="39">
-        <v>3.9986019961383984E-3</v>
+        <v>8.3380467468109065E-3</v>
       </c>
       <c r="H7" s="39">
-        <v>5.2510435705068366E-3</v>
+        <v>9.2159355297590645E-3</v>
       </c>
       <c r="I7" s="39">
-        <v>3.2512070461412402E-4</v>
+        <v>8.4846982321570303E-3</v>
       </c>
       <c r="J7" s="39">
-        <v>-7.9986248681273913E-5</v>
+        <v>8.4907866504068327E-3</v>
       </c>
       <c r="K7" s="39">
-        <v>-5.4973083878969147E-4</v>
+        <v>2.0977109313922494E-4</v>
       </c>
       <c r="L7" s="39">
-        <v>-5.847706844898967E-4</v>
+        <v>-1.39045153418213E-4</v>
       </c>
       <c r="M7" s="39">
-        <v>-6.4632364261084201E-4</v>
+        <v>1.8920851419658804E-6</v>
       </c>
       <c r="N7" s="39">
-        <v>-7.6613959258379951E-4</v>
+        <v>3.8036470218382585E-4</v>
       </c>
       <c r="O7" s="39">
-        <v>1.5986706605395945E-4</v>
+        <v>5.255368338335808E-4</v>
       </c>
       <c r="P7" s="39">
-        <v>3.3463380181899258E-4</v>
+        <v>2.3785196570842194E-4</v>
       </c>
       <c r="Q7" s="39">
-        <v>1.2651843223893473E-3</v>
+        <v>1.047267040798841E-4</v>
       </c>
       <c r="R7" s="39">
-        <v>1.2949711775609382E-3</v>
+        <v>1.2639314626075289E-4</v>
       </c>
       <c r="S7" s="39">
-        <v>5.785445597705479E-4</v>
+        <v>2.6188673157326228E-5</v>
       </c>
       <c r="T7" s="39">
-        <v>1.2107372402140495E-3</v>
+        <v>-2.9832862291572404E-4</v>
       </c>
       <c r="U7" s="39">
-        <v>-5.7594043290552733E-6</v>
+        <v>1.3324990097165145E-4</v>
       </c>
       <c r="V7" s="39">
-        <v>9.9459878254290588E-4</v>
+        <v>4.89020247241281E-5</v>
       </c>
       <c r="W7" s="39">
-        <v>1.4704289228256969E-3</v>
+        <v>1.2669778853821633E-4</v>
       </c>
       <c r="X7" s="39">
-        <v>2.2810438736358822E-4</v>
+        <v>-3.6322694696325122E-4</v>
       </c>
       <c r="Y7" s="39">
-        <v>2.3175387469279922E-5</v>
+        <v>4.7865323792996989E-5</v>
       </c>
       <c r="Z7" s="39">
-        <v>-2.4748772160934911E-5</v>
+        <v>1.4351341262964579E-4</v>
       </c>
       <c r="AA7" s="39">
-        <v>5.383452640087005E-5</v>
-      </c>
-      <c r="AB7" s="39">
-        <v>-9.8833958273202645E-5</v>
-      </c>
-      <c r="AC7" s="39">
-        <v>-1.1747933807874065E-5</v>
-      </c>
-      <c r="AD7" s="39">
-        <v>-3.8405638770826114E-4</v>
-      </c>
-      <c r="AE7" s="39">
-        <v>2.8691553241524275E-5</v>
-      </c>
-      <c r="AF7" s="39">
-        <v>2.4797648451849652E-4</v>
-      </c>
-      <c r="AG7" s="39">
-        <v>2.2905757395878183E-4</v>
-      </c>
-      <c r="AH7" s="39">
-        <v>3.2847805032851219E-4</v>
-      </c>
-      <c r="AI7" s="39">
-        <v>-1.2803948485705131E-3</v>
-      </c>
+        <v>-1.0592124705671543E-2</v>
+      </c>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="52">
-        <v>-0.28192176752934023</v>
+        <v>104</v>
+      </c>
+      <c r="B8" s="51">
+        <v>0.19810621194981407</v>
       </c>
       <c r="C8" s="39">
-        <v>-1.218349434616026E-4</v>
+        <v>1.0091775118784024E-4</v>
       </c>
       <c r="D8" s="39">
-        <v>1.5847997227142801E-6</v>
+        <v>-1.2496832327318308E-6</v>
       </c>
       <c r="E8" s="39">
-        <v>4.5970004048863128E-6</v>
+        <v>1.7358733144263579E-5</v>
       </c>
       <c r="F8" s="39">
-        <v>1.1882726577197315E-4</v>
+        <v>-2.0549528727647305E-4</v>
       </c>
       <c r="G8" s="39">
-        <v>1.8957083492317719E-4</v>
+        <v>8.377590457329177E-3</v>
       </c>
       <c r="H8" s="39">
-        <v>3.2512070461412402E-4</v>
+        <v>8.4846982321570303E-3</v>
       </c>
       <c r="I8" s="39">
-        <v>5.5779246371620475E-4</v>
+        <v>9.0479087480070559E-3</v>
       </c>
       <c r="J8" s="39">
-        <v>-2.3964296227460733E-4</v>
+        <v>8.5704822630977562E-3</v>
       </c>
       <c r="K8" s="39">
-        <v>-9.9260219642262516E-5</v>
+        <v>2.6625839327802333E-4</v>
       </c>
       <c r="L8" s="39">
-        <v>-1.6642943409804251E-6</v>
+        <v>3.7243987244121098E-5</v>
       </c>
       <c r="M8" s="39">
-        <v>2.6716686771959702E-5</v>
+        <v>2.4737183090226835E-6</v>
       </c>
       <c r="N8" s="39">
-        <v>-3.0488089590302581E-5</v>
+        <v>2.1635931822142009E-4</v>
       </c>
       <c r="O8" s="39">
-        <v>-3.2609875537880544E-5</v>
+        <v>6.8175981709594526E-4</v>
       </c>
       <c r="P8" s="39">
-        <v>4.303881026474831E-4</v>
+        <v>8.1609568936501491E-5</v>
       </c>
       <c r="Q8" s="39">
-        <v>2.8253401022049391E-4</v>
+        <v>1.68826673216378E-5</v>
       </c>
       <c r="R8" s="39">
-        <v>-2.1548231320501744E-4</v>
+        <v>5.2453929855867699E-5</v>
       </c>
       <c r="S8" s="39">
-        <v>-3.6916219336430918E-5</v>
+        <v>-4.6324929898535708E-5</v>
       </c>
       <c r="T8" s="39">
-        <v>1.2927259212461588E-4</v>
+        <v>-4.0198743198395265E-4</v>
       </c>
       <c r="U8" s="39">
-        <v>3.4537844568745084E-6</v>
+        <v>1.0997808257783188E-4</v>
       </c>
       <c r="V8" s="39">
-        <v>-5.7537016114682913E-5</v>
+        <v>-5.248446993680691E-5</v>
       </c>
       <c r="W8" s="39">
-        <v>-1.2835140759564215E-4</v>
+        <v>8.463586749129148E-5</v>
       </c>
       <c r="X8" s="39">
-        <v>-7.1216763788669603E-5</v>
+        <v>-4.455564627839333E-4</v>
       </c>
       <c r="Y8" s="39">
-        <v>-1.1658037880335053E-4</v>
+        <v>8.6659672269610421E-5</v>
       </c>
       <c r="Z8" s="39">
-        <v>-9.7622067009943555E-5</v>
+        <v>-8.7207796307997576E-5</v>
       </c>
       <c r="AA8" s="39">
-        <v>-4.6101750397358073E-5</v>
-      </c>
-      <c r="AB8" s="39">
-        <v>-8.0524287893418716E-5</v>
-      </c>
-      <c r="AC8" s="39">
-        <v>6.4928926320307148E-7</v>
-      </c>
-      <c r="AD8" s="39">
-        <v>-1.0781209460359528E-4</v>
-      </c>
-      <c r="AE8" s="39">
-        <v>-1.0124122944365528E-4</v>
-      </c>
-      <c r="AF8" s="39">
-        <v>-1.0623625278437509E-4</v>
-      </c>
-      <c r="AG8" s="39">
-        <v>-6.1459656527324512E-5</v>
-      </c>
-      <c r="AH8" s="39">
-        <v>-1.1583107681161989E-4</v>
-      </c>
-      <c r="AI8" s="39">
-        <v>1.1968647600404999E-3</v>
-      </c>
+        <v>-1.0684829849452168E-2</v>
+      </c>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="52">
-        <v>0.82356441482310672</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="51">
+        <v>0.25549182534221632</v>
       </c>
       <c r="C9" s="39">
-        <v>2.8002438220485568E-5</v>
+        <v>1.0187334368333249E-4</v>
       </c>
       <c r="D9" s="39">
-        <v>1.0374760408060689E-7</v>
+        <v>-1.322332723996648E-6</v>
       </c>
       <c r="E9" s="39">
-        <v>-1.3034378205317851E-5</v>
+        <v>5.8161689412599046E-6</v>
       </c>
       <c r="F9" s="39">
-        <v>-6.8146378393879728E-5</v>
+        <v>-1.8841535331914721E-4</v>
       </c>
       <c r="G9" s="39">
-        <v>-1.1611652522059337E-4</v>
+        <v>8.3879744981974133E-3</v>
       </c>
       <c r="H9" s="39">
-        <v>-7.9986248681273913E-5</v>
+        <v>8.4907866504068327E-3</v>
       </c>
       <c r="I9" s="39">
-        <v>-2.3964296227460733E-4</v>
+        <v>8.5704822630977562E-3</v>
       </c>
       <c r="J9" s="39">
-        <v>1.0198121818856972E-3</v>
+        <v>9.5369795588314404E-3</v>
       </c>
       <c r="K9" s="39">
-        <v>-1.8654609242642773E-5</v>
+        <v>2.5267753618119252E-4</v>
       </c>
       <c r="L9" s="39">
-        <v>-1.7704361734405613E-4</v>
+        <v>4.3224630530910651E-5</v>
       </c>
       <c r="M9" s="39">
-        <v>-1.8162977730208616E-4</v>
+        <v>-5.8741353152263684E-6</v>
       </c>
       <c r="N9" s="39">
-        <v>-1.8298650345924917E-4</v>
+        <v>6.3696746022675189E-5</v>
       </c>
       <c r="O9" s="39">
-        <v>-3.8685973484566417E-4</v>
+        <v>7.048330585027675E-4</v>
       </c>
       <c r="P9" s="39">
-        <v>-2.3238362435625177E-4</v>
+        <v>8.5400065101500812E-6</v>
       </c>
       <c r="Q9" s="39">
-        <v>4.8253518954022588E-4</v>
+        <v>5.3428096736039647E-6</v>
       </c>
       <c r="R9" s="39">
-        <v>3.8640319372843272E-4</v>
+        <v>3.0066128490034184E-5</v>
       </c>
       <c r="S9" s="39">
-        <v>1.6867275718124536E-4</v>
+        <v>-3.6067129600352021E-5</v>
       </c>
       <c r="T9" s="39">
-        <v>1.7939906710461804E-4</v>
+        <v>-4.1389968950664526E-4</v>
       </c>
       <c r="U9" s="39">
-        <v>-1.2939294898741568E-5</v>
+        <v>3.9249570408013889E-5</v>
       </c>
       <c r="V9" s="39">
-        <v>5.3958208011748879E-5</v>
+        <v>-2.4051266081163156E-5</v>
       </c>
       <c r="W9" s="39">
-        <v>-6.3034040192783678E-5</v>
+        <v>2.3294702575539505E-5</v>
       </c>
       <c r="X9" s="39">
-        <v>3.3764311156188106E-5</v>
+        <v>-4.9152642651487544E-4</v>
       </c>
       <c r="Y9" s="39">
-        <v>6.2517363914633885E-5</v>
+        <v>-3.3898253702399454E-5</v>
       </c>
       <c r="Z9" s="39">
-        <v>1.1618352334687599E-4</v>
+        <v>-1.6626608509031672E-4</v>
       </c>
       <c r="AA9" s="39">
-        <v>-2.7664058607900676E-5</v>
-      </c>
-      <c r="AB9" s="39">
-        <v>-7.2606713004621398E-6</v>
-      </c>
-      <c r="AC9" s="39">
-        <v>-1.2098897538618147E-4</v>
-      </c>
-      <c r="AD9" s="39">
-        <v>-2.6254745307028424E-5</v>
-      </c>
-      <c r="AE9" s="39">
-        <v>-2.9596542538649239E-5</v>
-      </c>
-      <c r="AF9" s="39">
-        <v>2.7729024383901194E-5</v>
-      </c>
-      <c r="AG9" s="39">
-        <v>8.9502947246556243E-7</v>
-      </c>
-      <c r="AH9" s="39">
-        <v>2.4302657510643478E-5</v>
-      </c>
-      <c r="AI9" s="39">
-        <v>-2.9157923204674654E-4</v>
-      </c>
+        <v>-1.009477715903654E-2</v>
+      </c>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="52">
-        <v>6.7283548823906233E-2</v>
+        <v>98</v>
+      </c>
+      <c r="B10" s="51">
+        <v>-0.69394442760294495</v>
       </c>
       <c r="C10" s="39">
-        <v>2.1374077521847668E-5</v>
+        <v>2.8980876826062711E-4</v>
       </c>
       <c r="D10" s="39">
-        <v>-6.4815598776820521E-8</v>
+        <v>-3.7267513292763796E-6</v>
       </c>
       <c r="E10" s="39">
-        <v>-1.3605224749272234E-4</v>
+        <v>1.2082505041958289E-4</v>
       </c>
       <c r="F10" s="39">
-        <v>-3.6702224444462719E-4</v>
+        <v>6.4283506255682741E-5</v>
       </c>
       <c r="G10" s="39">
-        <v>-6.0438264911192175E-4</v>
+        <v>1.3250121668813113E-4</v>
       </c>
       <c r="H10" s="39">
-        <v>-5.4973083878969147E-4</v>
+        <v>2.0977109313922494E-4</v>
       </c>
       <c r="I10" s="39">
-        <v>-9.9260219642262516E-5</v>
+        <v>2.6625839327802333E-4</v>
       </c>
       <c r="J10" s="39">
-        <v>-1.8654609242642773E-5</v>
+        <v>2.5267753618119252E-4</v>
       </c>
       <c r="K10" s="39">
-        <v>1.2395951364124448E-2</v>
+        <v>2.0446028738530767E-3</v>
       </c>
       <c r="L10" s="39">
-        <v>9.3003207190429839E-3</v>
+        <v>3.1813976340442436E-4</v>
       </c>
       <c r="M10" s="39">
-        <v>9.3311475380762135E-3</v>
+        <v>7.384547902229211E-6</v>
       </c>
       <c r="N10" s="39">
-        <v>9.3557545008327771E-3</v>
+        <v>-3.0423434949362915E-4</v>
       </c>
       <c r="O10" s="39">
-        <v>2.3754599706423372E-5</v>
+        <v>-4.9389096352152762E-5</v>
       </c>
       <c r="P10" s="39">
-        <v>-7.026377690971153E-4</v>
+        <v>1.7706794871038124E-4</v>
       </c>
       <c r="Q10" s="39">
-        <v>-3.3864834990176597E-4</v>
+        <v>2.1466829594439692E-4</v>
       </c>
       <c r="R10" s="39">
-        <v>4.4132725159521345E-4</v>
+        <v>1.8330501930034879E-4</v>
       </c>
       <c r="S10" s="39">
-        <v>-7.947242113379876E-5</v>
+        <v>3.0011111559499965E-4</v>
       </c>
       <c r="T10" s="39">
-        <v>-4.2326059515120171E-4</v>
+        <v>1.6323773846543094E-4</v>
       </c>
       <c r="U10" s="39">
-        <v>-1.2601927749930153E-5</v>
+        <v>3.0408744566762398E-4</v>
       </c>
       <c r="V10" s="39">
-        <v>-1.6012532746690505E-4</v>
+        <v>2.4070319007854827E-4</v>
       </c>
       <c r="W10" s="39">
-        <v>3.6420596157604062E-4</v>
+        <v>3.228627776994742E-4</v>
       </c>
       <c r="X10" s="39">
-        <v>1.0373202247918652E-5</v>
+        <v>1.88860671449337E-4</v>
       </c>
       <c r="Y10" s="39">
-        <v>7.866470190390825E-5</v>
+        <v>2.049317513947769E-4</v>
       </c>
       <c r="Z10" s="39">
-        <v>1.3341178314663906E-4</v>
+        <v>2.4153241992530116E-4</v>
       </c>
       <c r="AA10" s="39">
-        <v>-1.4544849710889252E-4</v>
-      </c>
-      <c r="AB10" s="39">
-        <v>-2.6538400015692354E-4</v>
-      </c>
-      <c r="AC10" s="39">
-        <v>-6.3250522316254856E-5</v>
-      </c>
-      <c r="AD10" s="39">
-        <v>-5.9961806873824351E-5</v>
-      </c>
-      <c r="AE10" s="39">
-        <v>8.5704004460780952E-5</v>
-      </c>
-      <c r="AF10" s="39">
-        <v>-3.7140152473436917E-4</v>
-      </c>
-      <c r="AG10" s="39">
-        <v>1.3918501806129292E-4</v>
-      </c>
-      <c r="AH10" s="39">
-        <v>1.5604425095317679E-4</v>
-      </c>
-      <c r="AI10" s="39">
-        <v>-8.6171317013568269E-3</v>
-      </c>
+        <v>-6.7763058106781061E-3</v>
+      </c>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="52">
-        <v>0.10515520323572274</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="51">
+        <v>-0.43630222885180303</v>
       </c>
       <c r="C11" s="39">
-        <v>1.1960911913836162E-4</v>
+        <v>6.8292380459348233E-8</v>
       </c>
       <c r="D11" s="39">
-        <v>-1.5781757304925397E-6</v>
+        <v>2.8529853411125653E-8</v>
       </c>
       <c r="E11" s="39">
-        <v>-2.5990811717210421E-4</v>
+        <v>6.2310152117077904E-5</v>
       </c>
       <c r="F11" s="39">
-        <v>-4.4050706689395742E-4</v>
+        <v>7.0944396310298086E-5</v>
       </c>
       <c r="G11" s="39">
-        <v>-6.3343531658465574E-4</v>
+        <v>-2.2840363672087252E-4</v>
       </c>
       <c r="H11" s="39">
-        <v>-5.847706844898967E-4</v>
+        <v>-1.39045153418213E-4</v>
       </c>
       <c r="I11" s="39">
-        <v>-1.6642943409804251E-6</v>
+        <v>3.7243987244121098E-5</v>
       </c>
       <c r="J11" s="39">
-        <v>-1.7704361734405613E-4</v>
+        <v>4.3224630530910651E-5</v>
       </c>
       <c r="K11" s="39">
-        <v>9.3003207190429839E-3</v>
+        <v>3.1813976340442436E-4</v>
       </c>
       <c r="L11" s="39">
-        <v>1.0371986529425153E-2</v>
+        <v>5.6875662690180446E-3</v>
       </c>
       <c r="M11" s="39">
-        <v>9.489583083625637E-3</v>
+        <v>2.0007693438186538E-5</v>
       </c>
       <c r="N11" s="39">
-        <v>9.5113289937404904E-3</v>
+        <v>-2.0533989727289549E-4</v>
       </c>
       <c r="O11" s="39">
-        <v>-3.5003046079864998E-5</v>
+        <v>-1.2788460395288123E-4</v>
       </c>
       <c r="P11" s="39">
-        <v>-2.2905122077534904E-4</v>
+        <v>-6.4528152973229085E-5</v>
       </c>
       <c r="Q11" s="39">
-        <v>-8.3873612085599153E-6</v>
+        <v>1.3050578466711942E-4</v>
       </c>
       <c r="R11" s="39">
-        <v>-1.3203299176665407E-4</v>
+        <v>-1.3376388592781815E-5</v>
       </c>
       <c r="S11" s="39">
-        <v>-7.4274103065545289E-6</v>
+        <v>2.958753018723957E-5</v>
       </c>
       <c r="T11" s="39">
-        <v>-1.1356077764018615E-4</v>
+        <v>6.1806727939405041E-5</v>
       </c>
       <c r="U11" s="39">
-        <v>-1.8618872580703958E-5</v>
+        <v>-1.7447879399349264E-5</v>
       </c>
       <c r="V11" s="39">
-        <v>1.9841187920726874E-4</v>
+        <v>-1.4035481804636196E-5</v>
       </c>
       <c r="W11" s="39">
-        <v>4.7230641304221352E-4</v>
+        <v>9.6957387034932234E-5</v>
       </c>
       <c r="X11" s="39">
-        <v>4.0410344383876246E-4</v>
+        <v>-9.9074145001224129E-5</v>
       </c>
       <c r="Y11" s="39">
-        <v>2.072080039344738E-4</v>
+        <v>4.161852127992162E-5</v>
       </c>
       <c r="Z11" s="39">
-        <v>3.0199582062903586E-4</v>
+        <v>-1.8331603034794957E-4</v>
       </c>
       <c r="AA11" s="39">
-        <v>7.0258386162765085E-5</v>
-      </c>
-      <c r="AB11" s="39">
-        <v>-3.7239361064351703E-5</v>
-      </c>
-      <c r="AC11" s="39">
-        <v>2.255258039206157E-4</v>
-      </c>
-      <c r="AD11" s="39">
-        <v>1.9343167456294021E-4</v>
-      </c>
-      <c r="AE11" s="39">
-        <v>1.4813600698444914E-4</v>
-      </c>
-      <c r="AF11" s="39">
-        <v>-2.3415121909542078E-4</v>
-      </c>
-      <c r="AG11" s="39">
-        <v>1.8329255690835433E-4</v>
-      </c>
-      <c r="AH11" s="39">
-        <v>2.5616734716928102E-4</v>
-      </c>
-      <c r="AI11" s="39">
-        <v>-1.0228068240705816E-2</v>
-      </c>
+        <v>-1.5891993783638805E-3</v>
+      </c>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="52">
-        <v>0.18393935487452034</v>
+        <v>48</v>
+      </c>
+      <c r="B12" s="51">
+        <v>1.6226708325315649E-2</v>
       </c>
       <c r="C12" s="39">
-        <v>8.4032457276258469E-5</v>
+        <v>-9.445252502787954E-6</v>
       </c>
       <c r="D12" s="39">
-        <v>-9.9224572082487228E-7</v>
+        <v>1.5450097305241524E-7</v>
       </c>
       <c r="E12" s="39">
-        <v>-2.0888450962187064E-4</v>
+        <v>-4.0075383170698914E-7</v>
       </c>
       <c r="F12" s="39">
-        <v>-4.1073122768806508E-4</v>
+        <v>-7.6628420193595127E-6</v>
       </c>
       <c r="G12" s="39">
-        <v>-6.4011245717876021E-4</v>
+        <v>-3.7999495822221212E-6</v>
       </c>
       <c r="H12" s="39">
-        <v>-6.4632364261084201E-4</v>
+        <v>1.8920851419658804E-6</v>
       </c>
       <c r="I12" s="39">
-        <v>2.6716686771959702E-5</v>
+        <v>2.4737183090226835E-6</v>
       </c>
       <c r="J12" s="39">
-        <v>-1.8162977730208616E-4</v>
+        <v>-5.8741353152263684E-6</v>
       </c>
       <c r="K12" s="39">
-        <v>9.3311475380762135E-3</v>
+        <v>7.384547902229211E-6</v>
       </c>
       <c r="L12" s="39">
-        <v>9.489583083625637E-3</v>
+        <v>2.0007693438186538E-5</v>
       </c>
       <c r="M12" s="39">
-        <v>1.0248852269857943E-2</v>
+        <v>2.0617874622297068E-5</v>
       </c>
       <c r="N12" s="39">
-        <v>9.6275703845036809E-3</v>
+        <v>1.0162064855749855E-5</v>
       </c>
       <c r="O12" s="39">
-        <v>7.6922593218115357E-5</v>
+        <v>-1.3935928162486615E-5</v>
       </c>
       <c r="P12" s="39">
-        <v>3.6328413354523321E-5</v>
+        <v>-1.7244319575416449E-5</v>
       </c>
       <c r="Q12" s="39">
-        <v>3.7137519594045328E-5</v>
+        <v>6.6233762749868435E-6</v>
       </c>
       <c r="R12" s="39">
-        <v>-2.7010247410729892E-4</v>
+        <v>1.832379393765216E-5</v>
       </c>
       <c r="S12" s="39">
-        <v>3.0883210549625039E-5</v>
+        <v>3.5939979323995077E-6</v>
       </c>
       <c r="T12" s="39">
-        <v>2.2320824516311889E-4</v>
+        <v>1.4574213183668526E-5</v>
       </c>
       <c r="U12" s="39">
-        <v>-1.8149575583247153E-5</v>
+        <v>-1.2293397610183357E-6</v>
       </c>
       <c r="V12" s="39">
-        <v>2.2335117707054887E-4</v>
+        <v>-9.0607434203796705E-6</v>
       </c>
       <c r="W12" s="39">
-        <v>5.635994801329884E-4</v>
+        <v>1.8859222191539341E-7</v>
       </c>
       <c r="X12" s="39">
-        <v>1.1045077338238483E-4</v>
+        <v>-3.4031816118580607E-7</v>
       </c>
       <c r="Y12" s="39">
-        <v>3.3056666972253092E-5</v>
+        <v>1.265234149012051E-6</v>
       </c>
       <c r="Z12" s="39">
-        <v>4.90361672880529E-5</v>
+        <v>-1.3658915920119639E-5</v>
       </c>
       <c r="AA12" s="39">
-        <v>-1.300171319007868E-4</v>
-      </c>
-      <c r="AB12" s="39">
-        <v>-2.4986002975257212E-4</v>
-      </c>
-      <c r="AC12" s="39">
-        <v>1.1775317238285751E-4</v>
-      </c>
-      <c r="AD12" s="39">
-        <v>-6.1978734809104048E-5</v>
-      </c>
-      <c r="AE12" s="39">
-        <v>-2.037981801874221E-5</v>
-      </c>
-      <c r="AF12" s="39">
-        <v>-4.3998286914800813E-4</v>
-      </c>
-      <c r="AG12" s="39">
-        <v>1.1182137357833213E-4</v>
-      </c>
-      <c r="AH12" s="39">
-        <v>-1.3950563192923794E-4</v>
-      </c>
-      <c r="AI12" s="39">
-        <v>-9.7829545440705629E-3</v>
-      </c>
+        <v>-1.1190409346650998E-3</v>
+      </c>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="52">
-        <v>0.26883169233644799</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="51">
+        <v>-0.46104920192336607</v>
       </c>
       <c r="C13" s="39">
-        <v>7.1160327917864754E-5</v>
+        <v>7.7125972827008773E-4</v>
       </c>
       <c r="D13" s="39">
-        <v>-9.1518501932102476E-7</v>
+        <v>-1.1210915733527362E-5</v>
       </c>
       <c r="E13" s="39">
-        <v>-2.6683179999636481E-4</v>
+        <v>-1.4493071789156803E-4</v>
       </c>
       <c r="F13" s="39">
-        <v>-4.3101531258771871E-4</v>
+        <v>-2.0005909985378414E-5</v>
       </c>
       <c r="G13" s="39">
-        <v>-6.9955294188343386E-4</v>
+        <v>-8.0041552436380808E-6</v>
       </c>
       <c r="H13" s="39">
-        <v>-7.6613959258379951E-4</v>
+        <v>3.8036470218382585E-4</v>
       </c>
       <c r="I13" s="39">
-        <v>-3.0488089590302581E-5</v>
+        <v>2.1635931822142009E-4</v>
       </c>
       <c r="J13" s="39">
-        <v>-1.8298650345924917E-4</v>
+        <v>6.3696746022675189E-5</v>
       </c>
       <c r="K13" s="39">
-        <v>9.3557545008327771E-3</v>
+        <v>-3.0423434949362915E-4</v>
       </c>
       <c r="L13" s="39">
-        <v>9.5113289937404904E-3</v>
+        <v>-2.0533989727289549E-4</v>
       </c>
       <c r="M13" s="39">
-        <v>9.6275703845036809E-3</v>
+        <v>1.0162064855749855E-5</v>
       </c>
       <c r="N13" s="39">
-        <v>1.0833786020839746E-2</v>
+        <v>1.0003441083445393E-2</v>
       </c>
       <c r="O13" s="39">
-        <v>1.4080617064196783E-4</v>
+        <v>4.8448619402684939E-4</v>
       </c>
       <c r="P13" s="39">
-        <v>-8.7199574899879482E-5</v>
+        <v>2.5777608148370469E-4</v>
       </c>
       <c r="Q13" s="39">
-        <v>-1.2541574813380862E-4</v>
+        <v>3.1627642216024241E-4</v>
       </c>
       <c r="R13" s="39">
-        <v>-2.2783860268705213E-4</v>
+        <v>2.8872549668133851E-4</v>
       </c>
       <c r="S13" s="39">
-        <v>-2.9807245613376609E-6</v>
+        <v>2.0991149260454842E-4</v>
       </c>
       <c r="T13" s="39">
-        <v>8.7167821076494963E-5</v>
+        <v>7.5523444425320261E-4</v>
       </c>
       <c r="U13" s="39">
-        <v>-3.3644736636178696E-5</v>
+        <v>1.4119202534140242E-4</v>
       </c>
       <c r="V13" s="39">
-        <v>-6.1035753568563535E-5</v>
+        <v>2.1526666572317405E-4</v>
       </c>
       <c r="W13" s="39">
-        <v>5.4380113832841654E-4</v>
+        <v>2.2686236231899402E-4</v>
       </c>
       <c r="X13" s="39">
-        <v>2.0806249911910755E-4</v>
+        <v>3.0063850442506659E-6</v>
       </c>
       <c r="Y13" s="39">
-        <v>1.2549845383853135E-4</v>
+        <v>2.0082680660774748E-4</v>
       </c>
       <c r="Z13" s="39">
-        <v>1.6653632140508842E-4</v>
+        <v>3.6526141228749491E-4</v>
       </c>
       <c r="AA13" s="39">
-        <v>2.011483004183464E-5</v>
-      </c>
-      <c r="AB13" s="39">
-        <v>-1.5415672079109165E-4</v>
-      </c>
-      <c r="AC13" s="39">
-        <v>2.449770086735319E-4</v>
-      </c>
-      <c r="AD13" s="39">
-        <v>7.8732406726768995E-5</v>
-      </c>
-      <c r="AE13" s="39">
-        <v>3.8583381001402756E-5</v>
-      </c>
-      <c r="AF13" s="39">
-        <v>-3.9891601643087405E-4</v>
-      </c>
-      <c r="AG13" s="39">
-        <v>7.642828658389585E-5</v>
-      </c>
-      <c r="AH13" s="39">
-        <v>-1.2117024651872458E-4</v>
-      </c>
-      <c r="AI13" s="39">
-        <v>-8.3715814431749788E-3</v>
-      </c>
+        <v>-1.3926907897062989E-2</v>
+      </c>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="52">
-        <v>-0.68427458388484175</v>
+        <v>61</v>
+      </c>
+      <c r="B14" s="51">
+        <v>7.6795082772208617E-2</v>
       </c>
       <c r="C14" s="39">
-        <v>1.2831999405043572E-5</v>
+        <v>6.4281105987070482E-5</v>
       </c>
       <c r="D14" s="39">
-        <v>-1.4654455706756522E-7</v>
+        <v>-7.9390197270425293E-7</v>
       </c>
       <c r="E14" s="39">
-        <v>1.1314833169273251E-4</v>
+        <v>-1.4352816035221219E-4</v>
       </c>
       <c r="F14" s="39">
-        <v>2.0351157843055258E-4</v>
+        <v>-9.8396592282380365E-5</v>
       </c>
       <c r="G14" s="39">
-        <v>2.0278568324581746E-4</v>
+        <v>3.9080075501688903E-4</v>
       </c>
       <c r="H14" s="39">
-        <v>1.5986706605395945E-4</v>
+        <v>5.255368338335808E-4</v>
       </c>
       <c r="I14" s="39">
-        <v>-3.2609875537880544E-5</v>
+        <v>6.8175981709594526E-4</v>
       </c>
       <c r="J14" s="39">
-        <v>-3.8685973484566417E-4</v>
+        <v>7.048330585027675E-4</v>
       </c>
       <c r="K14" s="39">
-        <v>2.3754599706423372E-5</v>
+        <v>-4.9389096352152762E-5</v>
       </c>
       <c r="L14" s="39">
-        <v>-3.5003046079864998E-5</v>
+        <v>-1.2788460395288123E-4</v>
       </c>
       <c r="M14" s="39">
-        <v>7.6922593218115357E-5</v>
+        <v>-1.3935928162486615E-5</v>
       </c>
       <c r="N14" s="39">
-        <v>1.4080617064196783E-4</v>
+        <v>4.8448619402684939E-4</v>
       </c>
       <c r="O14" s="39">
-        <v>1.1641986234111605E-2</v>
+        <v>1.4044118694543795E-3</v>
       </c>
       <c r="P14" s="39">
-        <v>1.0780904168022944E-3</v>
+        <v>1.5637504653042848E-4</v>
       </c>
       <c r="Q14" s="39">
-        <v>-9.8725836089849674E-3</v>
+        <v>2.4161013196927412E-5</v>
       </c>
       <c r="R14" s="39">
-        <v>-1.1908266038289581E-3</v>
+        <v>-4.2572220167813829E-5</v>
       </c>
       <c r="S14" s="39">
-        <v>-1.7287902016799669E-4</v>
+        <v>5.0304891313507604E-5</v>
       </c>
       <c r="T14" s="39">
-        <v>-4.0623446712736142E-4</v>
+        <v>-8.9058437038539839E-5</v>
       </c>
       <c r="U14" s="39">
-        <v>4.8488460805691362E-6</v>
+        <v>6.9944432897206193E-5</v>
       </c>
       <c r="V14" s="39">
-        <v>1.5642442483138411E-5</v>
+        <v>1.9812466655911307E-8</v>
       </c>
       <c r="W14" s="39">
-        <v>-4.68463773039135E-5</v>
+        <v>6.5855379726116259E-5</v>
       </c>
       <c r="X14" s="39">
-        <v>4.250175804909482E-4</v>
+        <v>-3.8336633324710743E-5</v>
       </c>
       <c r="Y14" s="39">
-        <v>3.316470457527047E-4</v>
+        <v>-2.1507435048695727E-5</v>
       </c>
       <c r="Z14" s="39">
-        <v>-7.6408547376149213E-5</v>
+        <v>4.2151933427221513E-5</v>
       </c>
       <c r="AA14" s="39">
-        <v>3.9063785257766124E-4</v>
-      </c>
-      <c r="AB14" s="39">
-        <v>4.1330029670202364E-4</v>
-      </c>
-      <c r="AC14" s="39">
-        <v>5.0422786206728463E-4</v>
-      </c>
-      <c r="AD14" s="39">
-        <v>2.7108636378384785E-4</v>
-      </c>
-      <c r="AE14" s="39">
-        <v>6.1238971556992999E-4</v>
-      </c>
-      <c r="AF14" s="39">
-        <v>3.9214785214573421E-4</v>
-      </c>
-      <c r="AG14" s="39">
-        <v>3.7198135116832691E-4</v>
-      </c>
-      <c r="AH14" s="39">
-        <v>3.710195101673335E-4</v>
-      </c>
-      <c r="AI14" s="39">
-        <v>-8.1424348417036274E-4</v>
-      </c>
+        <v>-1.0614286773613279E-3</v>
+      </c>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="52">
-        <v>-0.57800611766146326</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="51">
+        <v>-0.14870693393837867</v>
       </c>
       <c r="C15" s="39">
-        <v>-4.4929368197242636E-7</v>
+        <v>-6.04696997182309E-5</v>
       </c>
       <c r="D15" s="39">
-        <v>-8.0009318779620349E-8</v>
+        <v>1.1292934240858733E-6</v>
       </c>
       <c r="E15" s="39">
-        <v>-3.3194500288139228E-4</v>
+        <v>-4.9703901260645461E-5</v>
       </c>
       <c r="F15" s="39">
-        <v>8.2610354797244749E-5</v>
+        <v>4.3817220464670856E-5</v>
       </c>
       <c r="G15" s="39">
-        <v>2.5406772287606458E-4</v>
+        <v>-1.2080746894496544E-4</v>
       </c>
       <c r="H15" s="39">
-        <v>3.3463380181899258E-4</v>
+        <v>2.3785196570842194E-4</v>
       </c>
       <c r="I15" s="39">
-        <v>4.303881026474831E-4</v>
+        <v>8.1609568936501491E-5</v>
       </c>
       <c r="J15" s="39">
-        <v>-2.3238362435625177E-4</v>
+        <v>8.5400065101500812E-6</v>
       </c>
       <c r="K15" s="39">
-        <v>-7.026377690971153E-4</v>
+        <v>1.7706794871038124E-4</v>
       </c>
       <c r="L15" s="39">
-        <v>-2.2905122077534904E-4</v>
+        <v>-6.4528152973229085E-5</v>
       </c>
       <c r="M15" s="39">
-        <v>3.6328413354523321E-5</v>
+        <v>-1.7244319575416449E-5</v>
       </c>
       <c r="N15" s="39">
-        <v>-8.7199574899879482E-5</v>
+        <v>2.5777608148370469E-4</v>
       </c>
       <c r="O15" s="39">
-        <v>1.0780904168022944E-3</v>
+        <v>1.5637504653042848E-4</v>
       </c>
       <c r="P15" s="39">
-        <v>1.9727370195794031E-2</v>
+        <v>7.612631155079012E-3</v>
       </c>
       <c r="Q15" s="39">
-        <v>-6.0758033560165251E-4</v>
+        <v>2.1946060341539579E-3</v>
       </c>
       <c r="R15" s="39">
-        <v>-1.5427707425338659E-2</v>
+        <v>2.1927239509356637E-3</v>
       </c>
       <c r="S15" s="39">
-        <v>-1.618081018137137E-4</v>
+        <v>2.1784317293821812E-3</v>
       </c>
       <c r="T15" s="39">
-        <v>1.2640235889020764E-3</v>
+        <v>2.1701903200243623E-3</v>
       </c>
       <c r="U15" s="39">
-        <v>1.511988101714898E-5</v>
+        <v>2.1841092568298903E-3</v>
       </c>
       <c r="V15" s="39">
-        <v>3.4899856130718812E-4</v>
+        <v>2.1953467178523673E-3</v>
       </c>
       <c r="W15" s="39">
-        <v>8.0263602449522656E-5</v>
+        <v>2.1845904446906152E-3</v>
       </c>
       <c r="X15" s="39">
-        <v>-8.1330829566925091E-4</v>
+        <v>2.2253613019681921E-3</v>
       </c>
       <c r="Y15" s="39">
-        <v>-4.1402456881922017E-4</v>
+        <v>2.1950707399103261E-3</v>
       </c>
       <c r="Z15" s="39">
-        <v>-8.3097054905796532E-4</v>
+        <v>2.2327235525212946E-3</v>
       </c>
       <c r="AA15" s="39">
-        <v>-5.6476157557559738E-4</v>
-      </c>
-      <c r="AB15" s="39">
-        <v>-5.0013491882413001E-4</v>
-      </c>
-      <c r="AC15" s="39">
-        <v>-6.3639663283316327E-4</v>
-      </c>
-      <c r="AD15" s="39">
-        <v>-7.4036995218977608E-4</v>
-      </c>
-      <c r="AE15" s="39">
-        <v>-5.1129780976975241E-4</v>
-      </c>
-      <c r="AF15" s="39">
-        <v>-9.145606478669294E-4</v>
-      </c>
-      <c r="AG15" s="39">
-        <v>-5.7824450036673362E-4</v>
-      </c>
-      <c r="AH15" s="39">
-        <v>-1.2154630310183289E-3</v>
-      </c>
-      <c r="AI15" s="39">
-        <v>-9.9667107228832656E-4</v>
-      </c>
+        <v>-5.3973726331169036E-4</v>
+      </c>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="52">
-        <v>0.13333148680987397</v>
+        <v>63</v>
+      </c>
+      <c r="B16" s="51">
+        <v>3.5571295144744997E-2</v>
       </c>
       <c r="C16" s="39">
-        <v>2.3082090133939165E-4</v>
+        <v>5.8650991709385987E-5</v>
       </c>
       <c r="D16" s="39">
-        <v>-2.7842440805876293E-6</v>
+        <v>-7.2719867228722109E-7</v>
       </c>
       <c r="E16" s="39">
-        <v>5.587791806235217E-4</v>
+        <v>-3.4990897761144507E-5</v>
       </c>
       <c r="F16" s="39">
-        <v>9.6110069310354341E-4</v>
+        <v>4.323458374947786E-5</v>
       </c>
       <c r="G16" s="39">
-        <v>1.1409292524726142E-3</v>
+        <v>-2.0659928564718127E-4</v>
       </c>
       <c r="H16" s="39">
-        <v>1.2651843223893473E-3</v>
+        <v>1.047267040798841E-4</v>
       </c>
       <c r="I16" s="39">
-        <v>2.8253401022049391E-4</v>
+        <v>1.68826673216378E-5</v>
       </c>
       <c r="J16" s="39">
-        <v>4.8253518954022588E-4</v>
+        <v>5.3428096736039647E-6</v>
       </c>
       <c r="K16" s="39">
-        <v>-3.3864834990176597E-4</v>
+        <v>2.1466829594439692E-4</v>
       </c>
       <c r="L16" s="39">
-        <v>-8.3873612085599153E-6</v>
+        <v>1.3050578466711942E-4</v>
       </c>
       <c r="M16" s="39">
-        <v>3.7137519594045328E-5</v>
+        <v>6.6233762749868435E-6</v>
       </c>
       <c r="N16" s="39">
-        <v>-1.2541574813380862E-4</v>
+        <v>3.1627642216024241E-4</v>
       </c>
       <c r="O16" s="39">
-        <v>-9.8725836089849674E-3</v>
+        <v>2.4161013196927412E-5</v>
       </c>
       <c r="P16" s="39">
-        <v>-6.0758033560165251E-4</v>
+        <v>2.1946060341539579E-3</v>
       </c>
       <c r="Q16" s="39">
-        <v>1.1870481668644793E-2</v>
+        <v>3.7407305628665713E-3</v>
       </c>
       <c r="R16" s="39">
-        <v>1.598434640108086E-3</v>
+        <v>2.2236522398235824E-3</v>
       </c>
       <c r="S16" s="39">
-        <v>1.1571286949586714E-4</v>
+        <v>2.2228154880387188E-3</v>
       </c>
       <c r="T16" s="39">
-        <v>8.8854344965408902E-4</v>
+        <v>2.2034864180999806E-3</v>
       </c>
       <c r="U16" s="39">
-        <v>-1.5383088545476505E-5</v>
+        <v>2.2150298175577154E-3</v>
       </c>
       <c r="V16" s="39">
-        <v>-6.3895720026874777E-5</v>
+        <v>2.2143224648618265E-3</v>
       </c>
       <c r="W16" s="39">
-        <v>2.0123688469944281E-4</v>
+        <v>2.2144015703938064E-3</v>
       </c>
       <c r="X16" s="39">
-        <v>-4.492433054139747E-4</v>
+        <v>2.2150687372595084E-3</v>
       </c>
       <c r="Y16" s="39">
-        <v>-2.8432149483417009E-4</v>
+        <v>2.2058475304791445E-3</v>
       </c>
       <c r="Z16" s="39">
-        <v>6.3691874963921029E-6</v>
+        <v>2.2456763818773837E-3</v>
       </c>
       <c r="AA16" s="39">
-        <v>-2.7183894976711602E-4</v>
-      </c>
-      <c r="AB16" s="39">
-        <v>-4.6402690151538532E-4</v>
-      </c>
-      <c r="AC16" s="39">
-        <v>-3.7387883204869027E-4</v>
-      </c>
-      <c r="AD16" s="39">
-        <v>-1.8442700450211973E-4</v>
-      </c>
-      <c r="AE16" s="39">
-        <v>-3.7131634904691941E-4</v>
-      </c>
-      <c r="AF16" s="39">
-        <v>-2.9024462244426437E-4</v>
-      </c>
-      <c r="AG16" s="39">
-        <v>-2.973751702225521E-4</v>
-      </c>
-      <c r="AH16" s="39">
-        <v>-1.5791173666172983E-4</v>
-      </c>
-      <c r="AI16" s="39">
-        <v>-5.4148152986244619E-3</v>
-      </c>
+        <v>-3.7774663065483784E-3</v>
+      </c>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="52">
-        <v>0.25194167054653288</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="51">
+        <v>-9.6190710640757321E-2</v>
       </c>
       <c r="C17" s="39">
-        <v>2.3826955361808122E-5</v>
+        <v>-3.2784034353686674E-6</v>
       </c>
       <c r="D17" s="39">
-        <v>-7.0406714519981962E-7</v>
+        <v>2.6894302944386581E-7</v>
       </c>
       <c r="E17" s="39">
-        <v>1.0868537242990142E-3</v>
+        <v>-3.7516727188220485E-5</v>
       </c>
       <c r="F17" s="39">
-        <v>9.7869312502858871E-4</v>
+        <v>3.5307767583729914E-5</v>
       </c>
       <c r="G17" s="39">
-        <v>1.1720048066797765E-3</v>
+        <v>-1.2366210894922255E-4</v>
       </c>
       <c r="H17" s="39">
-        <v>1.2949711775609382E-3</v>
+        <v>1.2639314626075289E-4</v>
       </c>
       <c r="I17" s="39">
-        <v>-2.1548231320501744E-4</v>
+        <v>5.2453929855867699E-5</v>
       </c>
       <c r="J17" s="39">
-        <v>3.8640319372843272E-4</v>
+        <v>3.0066128490034184E-5</v>
       </c>
       <c r="K17" s="39">
-        <v>4.4132725159521345E-4</v>
+        <v>1.8330501930034879E-4</v>
       </c>
       <c r="L17" s="39">
-        <v>-1.3203299176665407E-4</v>
+        <v>-1.3376388592781815E-5</v>
       </c>
       <c r="M17" s="39">
-        <v>-2.7010247410729892E-4</v>
+        <v>1.832379393765216E-5</v>
       </c>
       <c r="N17" s="39">
-        <v>-2.2783860268705213E-4</v>
+        <v>2.8872549668133851E-4</v>
       </c>
       <c r="O17" s="39">
-        <v>-1.1908266038289581E-3</v>
+        <v>-4.2572220167813829E-5</v>
       </c>
       <c r="P17" s="39">
-        <v>-1.5427707425338659E-2</v>
+        <v>2.1927239509356637E-3</v>
       </c>
       <c r="Q17" s="39">
-        <v>1.598434640108086E-3</v>
+        <v>2.2236522398235824E-3</v>
       </c>
       <c r="R17" s="39">
-        <v>1.8668739859071189E-2</v>
+        <v>4.5937495659627448E-3</v>
       </c>
       <c r="S17" s="39">
-        <v>1.7698082274895561E-4</v>
+        <v>2.2195490393785182E-3</v>
       </c>
       <c r="T17" s="39">
-        <v>-6.1809849459606666E-4</v>
+        <v>2.2074796578838304E-3</v>
       </c>
       <c r="U17" s="39">
-        <v>-5.688882225435469E-6</v>
+        <v>2.2227188367786258E-3</v>
       </c>
       <c r="V17" s="39">
-        <v>-8.9182861784002621E-4</v>
+        <v>2.2093029275686519E-3</v>
       </c>
       <c r="W17" s="39">
-        <v>3.0197355938670342E-5</v>
+        <v>2.2152397376933347E-3</v>
       </c>
       <c r="X17" s="39">
-        <v>5.4253526367993121E-4</v>
+        <v>2.1975260600343187E-3</v>
       </c>
       <c r="Y17" s="39">
-        <v>1.777809805742967E-4</v>
+        <v>2.2060494406782485E-3</v>
       </c>
       <c r="Z17" s="39">
-        <v>4.7246336515014298E-4</v>
+        <v>2.2460466278553036E-3</v>
       </c>
       <c r="AA17" s="39">
-        <v>2.9573123665142917E-4</v>
-      </c>
-      <c r="AB17" s="39">
-        <v>2.0230207289761965E-4</v>
-      </c>
-      <c r="AC17" s="39">
-        <v>2.2734653183556592E-4</v>
-      </c>
-      <c r="AD17" s="39">
-        <v>3.6789475370385645E-4</v>
-      </c>
-      <c r="AE17" s="39">
-        <v>1.8876356461914684E-4</v>
-      </c>
-      <c r="AF17" s="39">
-        <v>4.3080984455878661E-4</v>
-      </c>
-      <c r="AG17" s="39">
-        <v>3.7144042652578318E-4</v>
-      </c>
-      <c r="AH17" s="39">
-        <v>6.9648639231141693E-4</v>
-      </c>
-      <c r="AI17" s="39">
-        <v>-8.9351999270653672E-4</v>
-      </c>
+        <v>-3.5581887626707741E-3</v>
+      </c>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="52">
-        <v>-0.18083600461850163</v>
+        <v>65</v>
+      </c>
+      <c r="B18" s="51">
+        <v>9.5991391621691929E-2</v>
       </c>
       <c r="C18" s="39">
-        <v>1.283393248306371E-4</v>
+        <v>4.8618331908388849E-5</v>
       </c>
       <c r="D18" s="39">
-        <v>-1.6819149693409336E-6</v>
+        <v>-6.1982615698404306E-7</v>
       </c>
       <c r="E18" s="39">
-        <v>1.8405126121393152E-5</v>
+        <v>-1.8420758352099223E-5</v>
       </c>
       <c r="F18" s="39">
-        <v>9.6078708132031241E-5</v>
+        <v>6.8203885598864313E-5</v>
       </c>
       <c r="G18" s="39">
-        <v>2.41954812379697E-4</v>
+        <v>-2.77153452643593E-4</v>
       </c>
       <c r="H18" s="39">
-        <v>5.785445597705479E-4</v>
+        <v>2.6188673157326228E-5</v>
       </c>
       <c r="I18" s="39">
-        <v>-3.6916219336430918E-5</v>
+        <v>-4.6324929898535708E-5</v>
       </c>
       <c r="J18" s="39">
-        <v>1.6867275718124536E-4</v>
+        <v>-3.6067129600352021E-5</v>
       </c>
       <c r="K18" s="39">
-        <v>-7.947242113379876E-5</v>
+        <v>3.0011111559499965E-4</v>
       </c>
       <c r="L18" s="39">
-        <v>-7.4274103065545289E-6</v>
+        <v>2.958753018723957E-5</v>
       </c>
       <c r="M18" s="39">
-        <v>3.0883210549625039E-5</v>
+        <v>3.5939979323995077E-6</v>
       </c>
       <c r="N18" s="39">
-        <v>-2.9807245613376609E-6</v>
+        <v>2.0991149260454842E-4</v>
       </c>
       <c r="O18" s="39">
-        <v>-1.7287902016799669E-4</v>
+        <v>5.0304891313507604E-5</v>
       </c>
       <c r="P18" s="39">
-        <v>-1.618081018137137E-4</v>
+        <v>2.1784317293821812E-3</v>
       </c>
       <c r="Q18" s="39">
-        <v>1.1571286949586714E-4</v>
+        <v>2.2228154880387188E-3</v>
       </c>
       <c r="R18" s="39">
-        <v>1.7698082274895561E-4</v>
+        <v>2.2195490393785182E-3</v>
       </c>
       <c r="S18" s="39">
-        <v>1.3422104773460983E-3</v>
+        <v>4.4486158848199451E-3</v>
       </c>
       <c r="T18" s="39">
-        <v>9.958687226456688E-4</v>
+        <v>2.2207252817323577E-3</v>
       </c>
       <c r="U18" s="39">
-        <v>-2.0496400314995916E-5</v>
+        <v>2.2174650230698733E-3</v>
       </c>
       <c r="V18" s="39">
-        <v>3.3147390640373504E-4</v>
+        <v>2.2209363266255285E-3</v>
       </c>
       <c r="W18" s="39">
-        <v>3.8061126950358415E-5</v>
+        <v>2.2213476972489802E-3</v>
       </c>
       <c r="X18" s="39">
-        <v>-1.0699793381584817E-4</v>
+        <v>2.2192315570335832E-3</v>
       </c>
       <c r="Y18" s="39">
-        <v>-1.6021443183685024E-4</v>
+        <v>2.2042172308085195E-3</v>
       </c>
       <c r="Z18" s="39">
-        <v>-2.0838231654686208E-4</v>
+        <v>2.228264564340594E-3</v>
       </c>
       <c r="AA18" s="39">
-        <v>-2.9249796650395745E-4</v>
-      </c>
-      <c r="AB18" s="39">
-        <v>-2.4978446545607512E-4</v>
-      </c>
-      <c r="AC18" s="39">
-        <v>-1.7231129240884873E-4</v>
-      </c>
-      <c r="AD18" s="39">
-        <v>-1.7609043503849969E-4</v>
-      </c>
-      <c r="AE18" s="39">
-        <v>-2.3777458198786594E-4</v>
-      </c>
-      <c r="AF18" s="39">
-        <v>-8.0048974935962355E-5</v>
-      </c>
-      <c r="AG18" s="39">
-        <v>-1.1151507949401095E-4</v>
-      </c>
-      <c r="AH18" s="39">
-        <v>-2.3712881634466621E-4</v>
-      </c>
-      <c r="AI18" s="39">
-        <v>-1.9975385660724182E-3</v>
-      </c>
+        <v>-3.379697167997301E-3</v>
+      </c>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="52">
-        <v>-6.8801738621908026E-2</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="51">
+        <v>0.10273014910162685</v>
       </c>
       <c r="C19" s="39">
-        <v>1.4444721172952868E-4</v>
+        <v>6.3250812246989224E-5</v>
       </c>
       <c r="D19" s="39">
-        <v>-2.0303795448796077E-6</v>
+        <v>-8.9941277489665995E-7</v>
       </c>
       <c r="E19" s="39">
-        <v>3.3063539905890346E-4</v>
+        <v>-3.0507308265082749E-5</v>
       </c>
       <c r="F19" s="39">
-        <v>6.2761627890517251E-4</v>
+        <v>4.1966733674086922E-5</v>
       </c>
       <c r="G19" s="39">
-        <v>8.4575535056037512E-4</v>
+        <v>-5.6926578833782493E-4</v>
       </c>
       <c r="H19" s="39">
-        <v>1.2107372402140495E-3</v>
+        <v>-2.9832862291572404E-4</v>
       </c>
       <c r="I19" s="39">
-        <v>1.2927259212461588E-4</v>
+        <v>-4.0198743198395265E-4</v>
       </c>
       <c r="J19" s="39">
-        <v>1.7939906710461804E-4</v>
+        <v>-4.1389968950664526E-4</v>
       </c>
       <c r="K19" s="39">
-        <v>-4.2326059515120171E-4</v>
+        <v>1.6323773846543094E-4</v>
       </c>
       <c r="L19" s="39">
-        <v>-1.1356077764018615E-4</v>
+        <v>6.1806727939405041E-5</v>
       </c>
       <c r="M19" s="39">
-        <v>2.2320824516311889E-4</v>
+        <v>1.4574213183668526E-5</v>
       </c>
       <c r="N19" s="39">
-        <v>8.7167821076494963E-5</v>
+        <v>7.5523444425320261E-4</v>
       </c>
       <c r="O19" s="39">
-        <v>-4.0623446712736142E-4</v>
+        <v>-8.9058437038539839E-5</v>
       </c>
       <c r="P19" s="39">
-        <v>1.2640235889020764E-3</v>
+        <v>2.1701903200243623E-3</v>
       </c>
       <c r="Q19" s="39">
-        <v>8.8854344965408902E-4</v>
+        <v>2.2034864180999806E-3</v>
       </c>
       <c r="R19" s="39">
-        <v>-6.1809849459606666E-4</v>
+        <v>2.2074796578838304E-3</v>
       </c>
       <c r="S19" s="39">
-        <v>9.958687226456688E-4</v>
+        <v>2.2207252817323577E-3</v>
       </c>
       <c r="T19" s="39">
-        <v>6.3779524047065713E-3</v>
+        <v>4.6289555887312466E-3</v>
       </c>
       <c r="U19" s="39">
-        <v>-4.8138317602010723E-5</v>
+        <v>2.2059938791828635E-3</v>
       </c>
       <c r="V19" s="39">
-        <v>5.4637228617334679E-4</v>
+        <v>2.2026220731749331E-3</v>
       </c>
       <c r="W19" s="39">
-        <v>-1.5973394106172099E-4</v>
+        <v>2.2028664716172552E-3</v>
       </c>
       <c r="X19" s="39">
-        <v>-3.9605493710200186E-4</v>
+        <v>2.1837873690391746E-3</v>
       </c>
       <c r="Y19" s="39">
-        <v>-4.6825417998700911E-4</v>
+        <v>2.1862248046659351E-3</v>
       </c>
       <c r="Z19" s="39">
-        <v>-8.5215527971114059E-4</v>
+        <v>2.2353450583849615E-3</v>
       </c>
       <c r="AA19" s="39">
-        <v>-6.062547766165009E-4</v>
-      </c>
-      <c r="AB19" s="39">
-        <v>-6.4744863378914531E-4</v>
-      </c>
-      <c r="AC19" s="39">
-        <v>-1.8984840989169529E-4</v>
-      </c>
-      <c r="AD19" s="39">
-        <v>-5.6801974864076083E-4</v>
-      </c>
-      <c r="AE19" s="39">
-        <v>-4.6463624001972983E-4</v>
-      </c>
-      <c r="AF19" s="39">
-        <v>-4.5435808767118322E-4</v>
-      </c>
-      <c r="AG19" s="39">
-        <v>-3.4305953241037831E-4</v>
-      </c>
-      <c r="AH19" s="39">
-        <v>-3.266056847825629E-4</v>
-      </c>
-      <c r="AI19" s="39">
-        <v>-1.0716328854082652E-3</v>
-      </c>
+        <v>-3.7870882298073867E-3</v>
+      </c>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="52">
-        <v>2.7156718711365056E-3</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="51">
+        <v>2.9811954718590675E-2</v>
       </c>
       <c r="C20" s="39">
-        <v>-4.8957198924147634E-6</v>
+        <v>2.6804092219344638E-5</v>
       </c>
       <c r="D20" s="39">
-        <v>9.9058309598670918E-8</v>
+        <v>-2.1997291437571693E-7</v>
       </c>
       <c r="E20" s="39">
-        <v>-1.6853621473621693E-6</v>
+        <v>1.4883099542203737E-5</v>
       </c>
       <c r="F20" s="39">
-        <v>-2.6342193358200978E-6</v>
+        <v>-6.245786639365406E-5</v>
       </c>
       <c r="G20" s="39">
-        <v>-8.6727800569172679E-6</v>
+        <v>-2.0244397190521306E-4</v>
       </c>
       <c r="H20" s="39">
-        <v>-5.7594043290552733E-6</v>
+        <v>1.3324990097165145E-4</v>
       </c>
       <c r="I20" s="39">
-        <v>3.4537844568745084E-6</v>
+        <v>1.0997808257783188E-4</v>
       </c>
       <c r="J20" s="39">
-        <v>-1.2939294898741568E-5</v>
+        <v>3.9249570408013889E-5</v>
       </c>
       <c r="K20" s="39">
-        <v>-1.2601927749930153E-5</v>
+        <v>3.0408744566762398E-4</v>
       </c>
       <c r="L20" s="39">
-        <v>-1.8618872580703958E-5</v>
+        <v>-1.7447879399349264E-5</v>
       </c>
       <c r="M20" s="39">
-        <v>-1.8149575583247153E-5</v>
+        <v>-1.2293397610183357E-6</v>
       </c>
       <c r="N20" s="39">
-        <v>-3.3644736636178696E-5</v>
+        <v>1.4119202534140242E-4</v>
       </c>
       <c r="O20" s="39">
-        <v>4.8488460805691362E-6</v>
+        <v>6.9944432897206193E-5</v>
       </c>
       <c r="P20" s="39">
-        <v>1.511988101714898E-5</v>
+        <v>2.1841092568298903E-3</v>
       </c>
       <c r="Q20" s="39">
-        <v>-1.5383088545476505E-5</v>
+        <v>2.2150298175577154E-3</v>
       </c>
       <c r="R20" s="39">
-        <v>-5.688882225435469E-6</v>
+        <v>2.2227188367786258E-3</v>
       </c>
       <c r="S20" s="39">
-        <v>-2.0496400314995916E-5</v>
+        <v>2.2174650230698733E-3</v>
       </c>
       <c r="T20" s="39">
-        <v>-4.8138317602010723E-5</v>
+        <v>2.2059938791828635E-3</v>
       </c>
       <c r="U20" s="39">
-        <v>2.7414062250680582E-5</v>
+        <v>4.3584573674382478E-3</v>
       </c>
       <c r="V20" s="39">
-        <v>-1.1314495508030068E-5</v>
+        <v>2.2020285131115879E-3</v>
       </c>
       <c r="W20" s="39">
-        <v>-2.5067502743604406E-5</v>
+        <v>2.2136169058086215E-3</v>
       </c>
       <c r="X20" s="39">
-        <v>-2.8426059735738127E-5</v>
+        <v>2.2224824626689023E-3</v>
       </c>
       <c r="Y20" s="39">
-        <v>-3.0691984547181203E-6</v>
+        <v>2.2064221495194654E-3</v>
       </c>
       <c r="Z20" s="39">
-        <v>2.1168500916359401E-5</v>
+        <v>2.2262115617802756E-3</v>
       </c>
       <c r="AA20" s="39">
-        <v>1.695896806413761E-5</v>
-      </c>
-      <c r="AB20" s="39">
-        <v>1.8080569055832962E-5</v>
-      </c>
-      <c r="AC20" s="39">
-        <v>5.9036429487407168E-7</v>
-      </c>
-      <c r="AD20" s="39">
-        <v>5.0934758033410765E-6</v>
-      </c>
-      <c r="AE20" s="39">
-        <v>1.6546187658474142E-5</v>
-      </c>
-      <c r="AF20" s="39">
-        <v>3.0762965734642145E-6</v>
-      </c>
-      <c r="AG20" s="39">
-        <v>7.8625302143409386E-6</v>
-      </c>
-      <c r="AH20" s="39">
-        <v>-1.8469213932363593E-5</v>
-      </c>
-      <c r="AI20" s="39">
-        <v>-1.585175361646915E-3</v>
-      </c>
+        <v>-2.9085008791050913E-3</v>
+      </c>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="52">
-        <v>-0.40659524048855933</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="51">
+        <v>6.077889426175806E-2</v>
       </c>
       <c r="C21" s="39">
-        <v>2.7996441308883284E-4</v>
+        <v>8.0464778973090819E-5</v>
       </c>
       <c r="D21" s="39">
-        <v>-3.5430314235689469E-6</v>
+        <v>-1.1037845655556123E-6</v>
       </c>
       <c r="E21" s="39">
-        <v>5.6072459655473884E-4</v>
+        <v>-1.4131800603822059E-5</v>
       </c>
       <c r="F21" s="39">
-        <v>5.8761493668577124E-4</v>
+        <v>-6.3356491716530104E-6</v>
       </c>
       <c r="G21" s="39">
-        <v>9.1600939317752826E-4</v>
+        <v>-2.5211622026731517E-4</v>
       </c>
       <c r="H21" s="39">
-        <v>9.9459878254290588E-4</v>
+        <v>4.89020247241281E-5</v>
       </c>
       <c r="I21" s="39">
-        <v>-5.7537016114682913E-5</v>
+        <v>-5.248446993680691E-5</v>
       </c>
       <c r="J21" s="39">
-        <v>5.3958208011748879E-5</v>
+        <v>-2.4051266081163156E-5</v>
       </c>
       <c r="K21" s="39">
-        <v>-1.6012532746690505E-4</v>
+        <v>2.4070319007854827E-4</v>
       </c>
       <c r="L21" s="39">
-        <v>1.9841187920726874E-4</v>
+        <v>-1.4035481804636196E-5</v>
       </c>
       <c r="M21" s="39">
-        <v>2.2335117707054887E-4</v>
+        <v>-9.0607434203796705E-6</v>
       </c>
       <c r="N21" s="39">
-        <v>-6.1035753568563535E-5</v>
+        <v>2.1526666572317405E-4</v>
       </c>
       <c r="O21" s="39">
-        <v>1.5642442483138411E-5</v>
+        <v>1.9812466655911307E-8</v>
       </c>
       <c r="P21" s="39">
-        <v>3.4899856130718812E-4</v>
+        <v>2.1953467178523673E-3</v>
       </c>
       <c r="Q21" s="39">
-        <v>-6.3895720026874777E-5</v>
+        <v>2.2143224648618265E-3</v>
       </c>
       <c r="R21" s="39">
-        <v>-8.9182861784002621E-4</v>
+        <v>2.2093029275686519E-3</v>
       </c>
       <c r="S21" s="39">
-        <v>3.3147390640373504E-4</v>
+        <v>2.2209363266255285E-3</v>
       </c>
       <c r="T21" s="39">
-        <v>5.4637228617334679E-4</v>
+        <v>2.2026220731749331E-3</v>
       </c>
       <c r="U21" s="39">
-        <v>-1.1314495508030068E-5</v>
+        <v>2.2020285131115879E-3</v>
       </c>
       <c r="V21" s="39">
-        <v>1.9739894963630149E-2</v>
+        <v>3.6157271696375085E-3</v>
       </c>
       <c r="W21" s="39">
-        <v>9.4201091824252495E-4</v>
+        <v>2.2075005262522174E-3</v>
       </c>
       <c r="X21" s="39">
-        <v>9.1943799481091447E-4</v>
+        <v>2.2121222251713195E-3</v>
       </c>
       <c r="Y21" s="39">
-        <v>6.346833145575955E-4</v>
+        <v>2.1996481641111242E-3</v>
       </c>
       <c r="Z21" s="39">
-        <v>5.0025581747698087E-4</v>
+        <v>2.2454551727404759E-3</v>
       </c>
       <c r="AA21" s="39">
-        <v>6.876827473146982E-4</v>
-      </c>
-      <c r="AB21" s="39">
-        <v>1.0185382804541222E-3</v>
-      </c>
-      <c r="AC21" s="39">
-        <v>5.7641047933164173E-4</v>
-      </c>
-      <c r="AD21" s="39">
-        <v>6.1129839508963345E-4</v>
-      </c>
-      <c r="AE21" s="39">
-        <v>8.3010808597582539E-4</v>
-      </c>
-      <c r="AF21" s="39">
-        <v>6.9546063149942021E-4</v>
-      </c>
-      <c r="AG21" s="39">
-        <v>8.4697093308722907E-4</v>
-      </c>
-      <c r="AH21" s="39">
-        <v>1.0952349147272747E-3</v>
-      </c>
-      <c r="AI21" s="39">
-        <v>-6.6932489071419334E-3</v>
-      </c>
+        <v>-3.0537891461400119E-3</v>
+      </c>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="52">
-        <v>-0.1510852680398726</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="51">
+        <v>8.0727685597932211E-2</v>
       </c>
       <c r="C22" s="39">
-        <v>8.3016458905508204E-5</v>
+        <v>1.3177375460388671E-4</v>
       </c>
       <c r="D22" s="39">
-        <v>-9.4376895973550742E-7</v>
+        <v>-1.8853181137715474E-6</v>
       </c>
       <c r="E22" s="39">
-        <v>1.1085620858132688E-3</v>
+        <v>-3.2311639871032085E-5</v>
       </c>
       <c r="F22" s="39">
-        <v>1.3580130987347284E-3</v>
+        <v>2.6571846381807874E-6</v>
       </c>
       <c r="G22" s="39">
-        <v>1.477140122395566E-3</v>
+        <v>2.0902144930780428E-5</v>
       </c>
       <c r="H22" s="39">
-        <v>1.4704289228256969E-3</v>
+        <v>1.2669778853821633E-4</v>
       </c>
       <c r="I22" s="39">
-        <v>-1.2835140759564215E-4</v>
+        <v>8.463586749129148E-5</v>
       </c>
       <c r="J22" s="39">
-        <v>-6.3034040192783678E-5</v>
+        <v>2.3294702575539505E-5</v>
       </c>
       <c r="K22" s="39">
-        <v>3.6420596157604062E-4</v>
+        <v>3.228627776994742E-4</v>
       </c>
       <c r="L22" s="39">
-        <v>4.7230641304221352E-4</v>
+        <v>9.6957387034932234E-5</v>
       </c>
       <c r="M22" s="39">
-        <v>5.635994801329884E-4</v>
+        <v>1.8859222191539341E-7</v>
       </c>
       <c r="N22" s="39">
-        <v>5.4380113832841654E-4</v>
+        <v>2.2686236231899402E-4</v>
       </c>
       <c r="O22" s="39">
-        <v>-4.68463773039135E-5</v>
+        <v>6.5855379726116259E-5</v>
       </c>
       <c r="P22" s="39">
-        <v>8.0263602449522656E-5</v>
+        <v>2.1845904446906152E-3</v>
       </c>
       <c r="Q22" s="39">
-        <v>2.0123688469944281E-4</v>
+        <v>2.2144015703938064E-3</v>
       </c>
       <c r="R22" s="39">
-        <v>3.0197355938670342E-5</v>
+        <v>2.2152397376933347E-3</v>
       </c>
       <c r="S22" s="39">
-        <v>3.8061126950358415E-5</v>
+        <v>2.2213476972489802E-3</v>
       </c>
       <c r="T22" s="39">
-        <v>-1.5973394106172099E-4</v>
+        <v>2.2028664716172552E-3</v>
       </c>
       <c r="U22" s="39">
-        <v>-2.5067502743604406E-5</v>
+        <v>2.2136169058086215E-3</v>
       </c>
       <c r="V22" s="39">
-        <v>9.4201091824252495E-4</v>
+        <v>2.2075005262522174E-3</v>
       </c>
       <c r="W22" s="39">
-        <v>2.2388205788362956E-3</v>
+        <v>4.5400838930791318E-3</v>
       </c>
       <c r="X22" s="39">
-        <v>5.279497235618632E-4</v>
+        <v>2.2207473742912529E-3</v>
       </c>
       <c r="Y22" s="39">
-        <v>3.1920612788225279E-4</v>
+        <v>2.2081128966511859E-3</v>
       </c>
       <c r="Z22" s="39">
-        <v>2.5065263719693971E-4</v>
+        <v>2.2664910200386988E-3</v>
       </c>
       <c r="AA22" s="39">
-        <v>2.1827236741911178E-4</v>
-      </c>
-      <c r="AB22" s="39">
-        <v>1.5751927145895612E-4</v>
-      </c>
-      <c r="AC22" s="39">
-        <v>2.1266343421237643E-4</v>
-      </c>
-      <c r="AD22" s="39">
-        <v>4.8037015327334739E-5</v>
-      </c>
-      <c r="AE22" s="39">
-        <v>2.3591803302801159E-4</v>
-      </c>
-      <c r="AF22" s="39">
-        <v>3.118304921684756E-4</v>
-      </c>
-      <c r="AG22" s="39">
-        <v>2.8940782475863627E-4</v>
-      </c>
-      <c r="AH22" s="39">
-        <v>3.8406734242437746E-4</v>
-      </c>
-      <c r="AI22" s="39">
-        <v>-2.4175696041746544E-3</v>
-      </c>
+        <v>-4.5725766189058208E-3</v>
+      </c>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="52">
-        <v>-0.29290410782400789</v>
+        <v>70</v>
+      </c>
+      <c r="B23" s="51">
+        <v>-9.7901653781017228E-2</v>
       </c>
       <c r="C23" s="39">
-        <v>-1.4528135172121523E-5</v>
+        <v>2.6492190312752024E-5</v>
       </c>
       <c r="D23" s="39">
-        <v>5.8343999799512854E-7</v>
+        <v>-1.8084122271116109E-7</v>
       </c>
       <c r="E23" s="39">
-        <v>2.1497652604412923E-4</v>
+        <v>-6.9690267018158051E-5</v>
       </c>
       <c r="F23" s="39">
-        <v>5.5458697824466597E-5</v>
+        <v>1.9253207243597609E-5</v>
       </c>
       <c r="G23" s="39">
-        <v>1.2157646435716028E-4</v>
+        <v>-5.8422338743770088E-4</v>
       </c>
       <c r="H23" s="39">
-        <v>2.2810438736358822E-4</v>
+        <v>-3.6322694696325122E-4</v>
       </c>
       <c r="I23" s="39">
-        <v>-7.1216763788669603E-5</v>
+        <v>-4.455564627839333E-4</v>
       </c>
       <c r="J23" s="39">
-        <v>3.3764311156188106E-5</v>
+        <v>-4.9152642651487544E-4</v>
       </c>
       <c r="K23" s="39">
-        <v>1.0373202247918652E-5</v>
+        <v>1.88860671449337E-4</v>
       </c>
       <c r="L23" s="39">
-        <v>4.0410344383876246E-4</v>
+        <v>-9.9074145001224129E-5</v>
       </c>
       <c r="M23" s="39">
-        <v>1.1045077338238483E-4</v>
+        <v>-3.4031816118580607E-7</v>
       </c>
       <c r="N23" s="39">
-        <v>2.0806249911910755E-4</v>
+        <v>3.0063850442506659E-6</v>
       </c>
       <c r="O23" s="39">
-        <v>4.250175804909482E-4</v>
+        <v>-3.8336633324710743E-5</v>
       </c>
       <c r="P23" s="39">
-        <v>-8.1330829566925091E-4</v>
+        <v>2.2253613019681921E-3</v>
       </c>
       <c r="Q23" s="39">
-        <v>-4.492433054139747E-4</v>
+        <v>2.2150687372595084E-3</v>
       </c>
       <c r="R23" s="39">
-        <v>5.4253526367993121E-4</v>
+        <v>2.1975260600343187E-3</v>
       </c>
       <c r="S23" s="39">
-        <v>-1.0699793381584817E-4</v>
+        <v>2.2192315570335832E-3</v>
       </c>
       <c r="T23" s="39">
-        <v>-3.9605493710200186E-4</v>
+        <v>2.1837873690391746E-3</v>
       </c>
       <c r="U23" s="39">
-        <v>-2.8426059735738127E-5</v>
+        <v>2.2224824626689023E-3</v>
       </c>
       <c r="V23" s="39">
-        <v>9.1943799481091447E-4</v>
+        <v>2.2121222251713195E-3</v>
       </c>
       <c r="W23" s="39">
-        <v>5.279497235618632E-4</v>
+        <v>2.2207473742912529E-3</v>
       </c>
       <c r="X23" s="39">
-        <v>9.9380738469261026E-3</v>
+        <v>6.3432573920712797E-3</v>
       </c>
       <c r="Y23" s="39">
-        <v>2.8846970282595361E-3</v>
+        <v>2.2064846205604796E-3</v>
       </c>
       <c r="Z23" s="39">
-        <v>2.9628978997658837E-3</v>
+        <v>2.2854248603549586E-3</v>
       </c>
       <c r="AA23" s="39">
-        <v>2.8836667580334199E-3</v>
-      </c>
-      <c r="AB23" s="39">
-        <v>2.8768987461769433E-3</v>
-      </c>
-      <c r="AC23" s="39">
-        <v>2.8772180900083801E-3</v>
-      </c>
-      <c r="AD23" s="39">
-        <v>2.8729278694692752E-3</v>
-      </c>
-      <c r="AE23" s="39">
-        <v>2.9029289260746323E-3</v>
-      </c>
-      <c r="AF23" s="39">
-        <v>2.9617632671895171E-3</v>
-      </c>
-      <c r="AG23" s="39">
-        <v>2.900824039418823E-3</v>
-      </c>
-      <c r="AH23" s="39">
-        <v>3.1358985546639556E-3</v>
-      </c>
-      <c r="AI23" s="39">
-        <v>-1.6600398068475318E-3</v>
-      </c>
+        <v>-2.3396576475517615E-3</v>
+      </c>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="52">
-        <v>-6.5548992743657108E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B24" s="51">
+        <v>-8.1676503336780629E-2</v>
       </c>
       <c r="C24" s="39">
-        <v>1.5658626184247675E-5</v>
+        <v>4.3063852562759842E-5</v>
       </c>
       <c r="D24" s="39">
-        <v>1.3245796525997123E-8</v>
+        <v>-5.2229097930306379E-7</v>
       </c>
       <c r="E24" s="39">
-        <v>-3.9590119613981635E-5</v>
+        <v>-2.1928938724863989E-5</v>
       </c>
       <c r="F24" s="39">
-        <v>-7.8113127891339001E-5</v>
+        <v>1.5040618447491642E-5</v>
       </c>
       <c r="G24" s="39">
-        <v>-2.1522574184548162E-5</v>
+        <v>-1.1601794876509985E-4</v>
       </c>
       <c r="H24" s="39">
-        <v>2.3175387469279922E-5</v>
+        <v>4.7865323792996989E-5</v>
       </c>
       <c r="I24" s="39">
-        <v>-1.1658037880335053E-4</v>
+        <v>8.6659672269610421E-5</v>
       </c>
       <c r="J24" s="39">
-        <v>6.2517363914633885E-5</v>
+        <v>-3.3898253702399454E-5</v>
       </c>
       <c r="K24" s="39">
-        <v>7.866470190390825E-5</v>
+        <v>2.049317513947769E-4</v>
       </c>
       <c r="L24" s="39">
-        <v>2.072080039344738E-4</v>
+        <v>4.161852127992162E-5</v>
       </c>
       <c r="M24" s="39">
-        <v>3.3056666972253092E-5</v>
+        <v>1.265234149012051E-6</v>
       </c>
       <c r="N24" s="39">
-        <v>1.2549845383853135E-4</v>
+        <v>2.0082680660774748E-4</v>
       </c>
       <c r="O24" s="39">
-        <v>3.316470457527047E-4</v>
+        <v>-2.1507435048695727E-5</v>
       </c>
       <c r="P24" s="39">
-        <v>-4.1402456881922017E-4</v>
+        <v>2.1950707399103261E-3</v>
       </c>
       <c r="Q24" s="39">
-        <v>-2.8432149483417009E-4</v>
+        <v>2.2058475304791445E-3</v>
       </c>
       <c r="R24" s="39">
-        <v>1.777809805742967E-4</v>
+        <v>2.2060494406782485E-3</v>
       </c>
       <c r="S24" s="39">
-        <v>-1.6021443183685024E-4</v>
+        <v>2.2042172308085195E-3</v>
       </c>
       <c r="T24" s="39">
-        <v>-4.6825417998700911E-4</v>
+        <v>2.1862248046659351E-3</v>
       </c>
       <c r="U24" s="39">
-        <v>-3.0691984547181203E-6</v>
+        <v>2.2064221495194654E-3</v>
       </c>
       <c r="V24" s="39">
-        <v>6.346833145575955E-4</v>
+        <v>2.1996481641111242E-3</v>
       </c>
       <c r="W24" s="39">
-        <v>3.1920612788225279E-4</v>
+        <v>2.2081128966511859E-3</v>
       </c>
       <c r="X24" s="39">
-        <v>2.8846970282595361E-3</v>
+        <v>2.2064846205604796E-3</v>
       </c>
       <c r="Y24" s="39">
-        <v>4.9430534196374188E-3</v>
+        <v>5.4199874547168911E-3</v>
       </c>
       <c r="Z24" s="39">
-        <v>2.9800869515708523E-3</v>
+        <v>2.2351608782649902E-3</v>
       </c>
       <c r="AA24" s="39">
-        <v>2.9408224068056673E-3</v>
-      </c>
-      <c r="AB24" s="39">
-        <v>2.9260873917995225E-3</v>
-      </c>
-      <c r="AC24" s="39">
-        <v>2.9439782933971025E-3</v>
-      </c>
-      <c r="AD24" s="39">
-        <v>2.9057193679145736E-3</v>
-      </c>
-      <c r="AE24" s="39">
-        <v>2.9346374359400223E-3</v>
-      </c>
-      <c r="AF24" s="39">
-        <v>2.9677245466171913E-3</v>
-      </c>
-      <c r="AG24" s="39">
-        <v>2.9054444198376951E-3</v>
-      </c>
-      <c r="AH24" s="39">
-        <v>3.1305112094145255E-3</v>
-      </c>
-      <c r="AI24" s="39">
-        <v>-3.18927507303381E-3</v>
-      </c>
+        <v>-3.150770215374233E-3</v>
+      </c>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="52">
-        <v>-0.2230384287961393</v>
+        <v>72</v>
+      </c>
+      <c r="B25" s="51">
+        <v>0.15831367412844055</v>
       </c>
       <c r="C25" s="39">
-        <v>-1.8126552526082432E-5</v>
+        <v>3.3412906852726618E-5</v>
       </c>
       <c r="D25" s="39">
-        <v>6.0801766194762017E-7</v>
+        <v>-9.9094521313932815E-8</v>
       </c>
       <c r="E25" s="39">
-        <v>-1.9870401085065139E-4</v>
+        <v>-5.1534398238936875E-5</v>
       </c>
       <c r="F25" s="39">
-        <v>-8.4536652715739712E-5</v>
+        <v>5.3403887991762848E-7</v>
       </c>
       <c r="G25" s="39">
-        <v>-9.6272317087067868E-5</v>
+        <v>-7.4900699838965565E-5</v>
       </c>
       <c r="H25" s="39">
-        <v>-2.4748772160934911E-5</v>
+        <v>1.4351341262964579E-4</v>
       </c>
       <c r="I25" s="39">
-        <v>-9.7622067009943555E-5</v>
+        <v>-8.7207796307997576E-5</v>
       </c>
       <c r="J25" s="39">
-        <v>1.1618352334687599E-4</v>
+        <v>-1.6626608509031672E-4</v>
       </c>
       <c r="K25" s="39">
-        <v>1.3341178314663906E-4</v>
+        <v>2.4153241992530116E-4</v>
       </c>
       <c r="L25" s="39">
-        <v>3.0199582062903586E-4</v>
+        <v>-1.8331603034794957E-4</v>
       </c>
       <c r="M25" s="39">
-        <v>4.90361672880529E-5</v>
+        <v>-1.3658915920119639E-5</v>
       </c>
       <c r="N25" s="39">
-        <v>1.6653632140508842E-4</v>
+        <v>3.6526141228749491E-4</v>
       </c>
       <c r="O25" s="39">
-        <v>-7.6408547376149213E-5</v>
+        <v>4.2151933427221513E-5</v>
       </c>
       <c r="P25" s="39">
-        <v>-8.3097054905796532E-4</v>
+        <v>2.2327235525212946E-3</v>
       </c>
       <c r="Q25" s="39">
-        <v>6.3691874963921029E-6</v>
+        <v>2.2456763818773837E-3</v>
       </c>
       <c r="R25" s="39">
-        <v>4.7246336515014298E-4</v>
+        <v>2.2460466278553036E-3</v>
       </c>
       <c r="S25" s="39">
-        <v>-2.0838231654686208E-4</v>
+        <v>2.228264564340594E-3</v>
       </c>
       <c r="T25" s="39">
-        <v>-8.5215527971114059E-4</v>
+        <v>2.2353450583849615E-3</v>
       </c>
       <c r="U25" s="39">
-        <v>2.1168500916359401E-5</v>
+        <v>2.2262115617802756E-3</v>
       </c>
       <c r="V25" s="39">
-        <v>5.0025581747698087E-4</v>
+        <v>2.2454551727404759E-3</v>
       </c>
       <c r="W25" s="39">
-        <v>2.5065263719693971E-4</v>
+        <v>2.2664910200386988E-3</v>
       </c>
       <c r="X25" s="39">
-        <v>2.9628978997658837E-3</v>
+        <v>2.2854248603549586E-3</v>
       </c>
       <c r="Y25" s="39">
-        <v>2.9800869515708523E-3</v>
+        <v>2.2351608782649902E-3</v>
       </c>
       <c r="Z25" s="39">
-        <v>6.1755928349984304E-3</v>
+        <v>7.8875313409005575E-3</v>
       </c>
       <c r="AA25" s="39">
-        <v>3.0312904199325946E-3</v>
-      </c>
-      <c r="AB25" s="39">
-        <v>2.9969071000561665E-3</v>
-      </c>
-      <c r="AC25" s="39">
-        <v>2.97511034461043E-3</v>
-      </c>
-      <c r="AD25" s="39">
-        <v>2.9507098227040387E-3</v>
-      </c>
-      <c r="AE25" s="39">
-        <v>2.9929842405031506E-3</v>
-      </c>
-      <c r="AF25" s="39">
-        <v>3.0128546967383612E-3</v>
-      </c>
-      <c r="AG25" s="39">
-        <v>2.9755206571037279E-3</v>
-      </c>
-      <c r="AH25" s="39">
-        <v>3.2088192659836365E-3</v>
-      </c>
-      <c r="AI25" s="39">
-        <v>-4.2382094228424726E-3</v>
-      </c>
+        <v>-2.3193414581284492E-3</v>
+      </c>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="52">
-        <v>-1.0854357526938451E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="51">
+        <v>-5.4270429788695491</v>
       </c>
       <c r="C26" s="39">
-        <v>5.8232638738241194E-5</v>
+        <v>-7.6936857114723034E-3</v>
       </c>
       <c r="D26" s="39">
-        <v>-7.2322721701724142E-7</v>
+        <v>1.1484788171563251E-4</v>
       </c>
       <c r="E26" s="39">
-        <v>-7.7367687160907013E-5</v>
+        <v>-1.6275266489260978E-4</v>
       </c>
       <c r="F26" s="39">
-        <v>-2.1595941760476907E-5</v>
+        <v>2.3159357036057638E-3</v>
       </c>
       <c r="G26" s="39">
-        <v>4.1468271906189638E-6</v>
+        <v>-8.7147350439445801E-3</v>
       </c>
       <c r="H26" s="39">
-        <v>5.383452640087005E-5</v>
+        <v>-1.0592124705671543E-2</v>
       </c>
       <c r="I26" s="39">
-        <v>-4.6101750397358073E-5</v>
+        <v>-1.0684829849452168E-2</v>
       </c>
       <c r="J26" s="39">
-        <v>-2.7664058607900676E-5</v>
+        <v>-1.009477715903654E-2</v>
       </c>
       <c r="K26" s="39">
-        <v>-1.4544849710889252E-4</v>
+        <v>-6.7763058106781061E-3</v>
       </c>
       <c r="L26" s="39">
-        <v>7.0258386162765085E-5</v>
+        <v>-1.5891993783638805E-3</v>
       </c>
       <c r="M26" s="39">
-        <v>-1.300171319007868E-4</v>
+        <v>-1.1190409346650998E-3</v>
       </c>
       <c r="N26" s="39">
-        <v>2.011483004183464E-5</v>
+        <v>-1.3926907897062989E-2</v>
       </c>
       <c r="O26" s="39">
-        <v>3.9063785257766124E-4</v>
+        <v>-1.0614286773613279E-3</v>
       </c>
       <c r="P26" s="39">
-        <v>-5.6476157557559738E-4</v>
+        <v>-5.3973726331169036E-4</v>
       </c>
       <c r="Q26" s="39">
-        <v>-2.7183894976711602E-4</v>
+        <v>-3.7774663065483784E-3</v>
       </c>
       <c r="R26" s="39">
-        <v>2.9573123665142917E-4</v>
+        <v>-3.5581887626707741E-3</v>
       </c>
       <c r="S26" s="39">
-        <v>-2.9249796650395745E-4</v>
+        <v>-3.379697167997301E-3</v>
       </c>
       <c r="T26" s="39">
-        <v>-6.062547766165009E-4</v>
+        <v>-3.7870882298073867E-3</v>
       </c>
       <c r="U26" s="39">
-        <v>1.695896806413761E-5</v>
+        <v>-2.9085008791050913E-3</v>
       </c>
       <c r="V26" s="39">
-        <v>6.876827473146982E-4</v>
+        <v>-3.0537891461400119E-3</v>
       </c>
       <c r="W26" s="39">
-        <v>2.1827236741911178E-4</v>
+        <v>-4.5725766189058208E-3</v>
       </c>
       <c r="X26" s="39">
-        <v>2.8836667580334199E-3</v>
+        <v>-2.3396576475517615E-3</v>
       </c>
       <c r="Y26" s="39">
-        <v>2.9408224068056673E-3</v>
+        <v>-3.150770215374233E-3</v>
       </c>
       <c r="Z26" s="39">
-        <v>3.0312904199325946E-3</v>
+        <v>-2.3193414581284492E-3</v>
       </c>
       <c r="AA26" s="39">
-        <v>5.7125562514204961E-3</v>
-      </c>
-      <c r="AB26" s="39">
-        <v>2.9941603263515049E-3</v>
-      </c>
-      <c r="AC26" s="39">
-        <v>2.9667119110124681E-3</v>
-      </c>
-      <c r="AD26" s="39">
-        <v>2.94690821789107E-3</v>
-      </c>
-      <c r="AE26" s="39">
-        <v>2.9849196607549342E-3</v>
-      </c>
-      <c r="AF26" s="39">
-        <v>2.9873180015340503E-3</v>
-      </c>
-      <c r="AG26" s="39">
-        <v>2.9322267345891035E-3</v>
-      </c>
-      <c r="AH26" s="39">
-        <v>3.1302910519543201E-3</v>
-      </c>
-      <c r="AI26" s="39">
-        <v>-4.8606608502679283E-3</v>
-      </c>
+        <v>0.20676892669500641</v>
+      </c>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="52">
-        <v>7.2868636194702808E-3</v>
-      </c>
-      <c r="C27" s="39">
-        <v>-1.0252855482760677E-5</v>
-      </c>
-      <c r="D27" s="39">
-        <v>2.5402616802925194E-7</v>
-      </c>
-      <c r="E27" s="39">
-        <v>-2.1598392203751047E-4</v>
-      </c>
-      <c r="F27" s="39">
-        <v>-1.7865530294846515E-4</v>
-      </c>
-      <c r="G27" s="39">
-        <v>-9.2620105888368567E-5</v>
-      </c>
-      <c r="H27" s="39">
-        <v>-9.8833958273202645E-5</v>
-      </c>
-      <c r="I27" s="39">
-        <v>-8.0524287893418716E-5</v>
-      </c>
-      <c r="J27" s="39">
-        <v>-7.2606713004621398E-6</v>
-      </c>
-      <c r="K27" s="39">
-        <v>-2.6538400015692354E-4</v>
-      </c>
-      <c r="L27" s="39">
-        <v>-3.7239361064351703E-5</v>
-      </c>
-      <c r="M27" s="39">
-        <v>-2.4986002975257212E-4</v>
-      </c>
-      <c r="N27" s="39">
-        <v>-1.5415672079109165E-4</v>
-      </c>
-      <c r="O27" s="39">
-        <v>4.1330029670202364E-4</v>
-      </c>
-      <c r="P27" s="39">
-        <v>-5.0013491882413001E-4</v>
-      </c>
-      <c r="Q27" s="39">
-        <v>-4.6402690151538532E-4</v>
-      </c>
-      <c r="R27" s="39">
-        <v>2.0230207289761965E-4</v>
-      </c>
-      <c r="S27" s="39">
-        <v>-2.4978446545607512E-4</v>
-      </c>
-      <c r="T27" s="39">
-        <v>-6.4744863378914531E-4</v>
-      </c>
-      <c r="U27" s="39">
-        <v>1.8080569055832962E-5</v>
-      </c>
-      <c r="V27" s="39">
-        <v>1.0185382804541222E-3</v>
-      </c>
-      <c r="W27" s="39">
-        <v>1.5751927145895612E-4</v>
-      </c>
-      <c r="X27" s="39">
-        <v>2.8768987461769433E-3</v>
-      </c>
-      <c r="Y27" s="39">
-        <v>2.9260873917995225E-3</v>
-      </c>
-      <c r="Z27" s="39">
-        <v>2.9969071000561665E-3</v>
-      </c>
-      <c r="AA27" s="39">
-        <v>2.9941603263515049E-3</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>5.8551846899834847E-3</v>
-      </c>
-      <c r="AC27" s="39">
-        <v>2.9727733677142902E-3</v>
-      </c>
-      <c r="AD27" s="39">
-        <v>2.9399572001343995E-3</v>
-      </c>
-      <c r="AE27" s="39">
-        <v>2.966128653006181E-3</v>
-      </c>
-      <c r="AF27" s="39">
-        <v>2.9609913047761718E-3</v>
-      </c>
-      <c r="AG27" s="39">
-        <v>2.9205711287314312E-3</v>
-      </c>
-      <c r="AH27" s="39">
-        <v>3.1233967065928576E-3</v>
-      </c>
-      <c r="AI27" s="39">
-        <v>-3.4417080791951139E-3</v>
-      </c>
+      <c r="A27" s="33"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="52">
-        <v>9.5046410148126679E-3</v>
-      </c>
-      <c r="C28" s="39">
-        <v>-8.3729089734379918E-5</v>
-      </c>
-      <c r="D28" s="39">
-        <v>1.3071228764276264E-6</v>
-      </c>
-      <c r="E28" s="39">
-        <v>-6.5717779834871775E-5</v>
-      </c>
-      <c r="F28" s="39">
-        <v>-9.5158901167787663E-6</v>
-      </c>
-      <c r="G28" s="39">
-        <v>2.0562343318211382E-5</v>
-      </c>
-      <c r="H28" s="39">
-        <v>-1.1747933807874065E-5</v>
-      </c>
-      <c r="I28" s="39">
-        <v>6.4928926320307148E-7</v>
-      </c>
-      <c r="J28" s="39">
-        <v>-1.2098897538618147E-4</v>
-      </c>
-      <c r="K28" s="39">
-        <v>-6.3250522316254856E-5</v>
-      </c>
-      <c r="L28" s="39">
-        <v>2.255258039206157E-4</v>
-      </c>
-      <c r="M28" s="39">
-        <v>1.1775317238285751E-4</v>
-      </c>
-      <c r="N28" s="39">
-        <v>2.449770086735319E-4</v>
-      </c>
-      <c r="O28" s="39">
-        <v>5.0422786206728463E-4</v>
-      </c>
-      <c r="P28" s="39">
-        <v>-6.3639663283316327E-4</v>
-      </c>
-      <c r="Q28" s="39">
-        <v>-3.7387883204869027E-4</v>
-      </c>
-      <c r="R28" s="39">
-        <v>2.2734653183556592E-4</v>
-      </c>
-      <c r="S28" s="39">
-        <v>-1.7231129240884873E-4</v>
-      </c>
-      <c r="T28" s="39">
-        <v>-1.8984840989169529E-4</v>
-      </c>
-      <c r="U28" s="39">
-        <v>5.9036429487407168E-7</v>
-      </c>
-      <c r="V28" s="39">
-        <v>5.7641047933164173E-4</v>
-      </c>
-      <c r="W28" s="39">
-        <v>2.1266343421237643E-4</v>
-      </c>
-      <c r="X28" s="39">
-        <v>2.8772180900083801E-3</v>
-      </c>
-      <c r="Y28" s="39">
-        <v>2.9439782933971025E-3</v>
-      </c>
-      <c r="Z28" s="39">
-        <v>2.97511034461043E-3</v>
-      </c>
-      <c r="AA28" s="39">
-        <v>2.9667119110124681E-3</v>
-      </c>
-      <c r="AB28" s="39">
-        <v>2.9727733677142902E-3</v>
-      </c>
-      <c r="AC28" s="39">
-        <v>5.6781968434612088E-3</v>
-      </c>
-      <c r="AD28" s="39">
-        <v>2.9622933114660643E-3</v>
-      </c>
-      <c r="AE28" s="39">
-        <v>2.9862553926213531E-3</v>
-      </c>
-      <c r="AF28" s="39">
-        <v>2.9864175176090536E-3</v>
-      </c>
-      <c r="AG28" s="39">
-        <v>2.9526039882939617E-3</v>
-      </c>
-      <c r="AH28" s="39">
-        <v>3.014630473189563E-3</v>
-      </c>
-      <c r="AI28" s="39">
-        <v>-1.7446179422632123E-3</v>
-      </c>
+      <c r="A28" s="33"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="52">
-        <v>-1.2738764094608114E-2</v>
-      </c>
-      <c r="C29" s="39">
-        <v>3.8179512698824532E-6</v>
-      </c>
-      <c r="D29" s="39">
-        <v>1.1876851219207038E-7</v>
-      </c>
-      <c r="E29" s="39">
-        <v>-2.0397524819000133E-4</v>
-      </c>
-      <c r="F29" s="39">
-        <v>-2.4999423226445216E-4</v>
-      </c>
-      <c r="G29" s="39">
-        <v>-2.1428529525290311E-4</v>
-      </c>
-      <c r="H29" s="39">
-        <v>-3.8405638770826114E-4</v>
-      </c>
-      <c r="I29" s="39">
-        <v>-1.0781209460359528E-4</v>
-      </c>
-      <c r="J29" s="39">
-        <v>-2.6254745307028424E-5</v>
-      </c>
-      <c r="K29" s="39">
-        <v>-5.9961806873824351E-5</v>
-      </c>
-      <c r="L29" s="39">
-        <v>1.9343167456294021E-4</v>
-      </c>
-      <c r="M29" s="39">
-        <v>-6.1978734809104048E-5</v>
-      </c>
-      <c r="N29" s="39">
-        <v>7.8732406726768995E-5</v>
-      </c>
-      <c r="O29" s="39">
-        <v>2.7108636378384785E-4</v>
-      </c>
-      <c r="P29" s="39">
-        <v>-7.4036995218977608E-4</v>
-      </c>
-      <c r="Q29" s="39">
-        <v>-1.8442700450211973E-4</v>
-      </c>
-      <c r="R29" s="39">
-        <v>3.6789475370385645E-4</v>
-      </c>
-      <c r="S29" s="39">
-        <v>-1.7609043503849969E-4</v>
-      </c>
-      <c r="T29" s="39">
-        <v>-5.6801974864076083E-4</v>
-      </c>
-      <c r="U29" s="39">
-        <v>5.0934758033410765E-6</v>
-      </c>
-      <c r="V29" s="39">
-        <v>6.1129839508963345E-4</v>
-      </c>
-      <c r="W29" s="39">
-        <v>4.8037015327334739E-5</v>
-      </c>
-      <c r="X29" s="39">
-        <v>2.8729278694692752E-3</v>
-      </c>
-      <c r="Y29" s="39">
-        <v>2.9057193679145736E-3</v>
-      </c>
-      <c r="Z29" s="39">
-        <v>2.9507098227040387E-3</v>
-      </c>
-      <c r="AA29" s="39">
-        <v>2.94690821789107E-3</v>
-      </c>
-      <c r="AB29" s="39">
-        <v>2.9399572001343995E-3</v>
-      </c>
-      <c r="AC29" s="39">
-        <v>2.9622933114660643E-3</v>
-      </c>
-      <c r="AD29" s="39">
-        <v>4.7559102373301281E-3</v>
-      </c>
-      <c r="AE29" s="39">
-        <v>2.9323168535250717E-3</v>
-      </c>
-      <c r="AF29" s="39">
-        <v>2.9298652625820731E-3</v>
-      </c>
-      <c r="AG29" s="39">
-        <v>2.8851915350430832E-3</v>
-      </c>
-      <c r="AH29" s="39">
-        <v>3.0628108419657532E-3</v>
-      </c>
-      <c r="AI29" s="39">
-        <v>-3.0071137689077938E-3</v>
-      </c>
+      <c r="A29" s="33"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="52">
-        <v>-3.6198882443431286E-2</v>
-      </c>
-      <c r="C30" s="39">
-        <v>9.1186712288314313E-5</v>
-      </c>
-      <c r="D30" s="39">
-        <v>-1.163721643279234E-6</v>
-      </c>
-      <c r="E30" s="39">
-        <v>-5.8535484994778463E-5</v>
-      </c>
-      <c r="F30" s="39">
-        <v>-4.0729471593355712E-5</v>
-      </c>
-      <c r="G30" s="39">
-        <v>7.7203629468480459E-6</v>
-      </c>
-      <c r="H30" s="39">
-        <v>2.8691553241524275E-5</v>
-      </c>
-      <c r="I30" s="39">
-        <v>-1.0124122944365528E-4</v>
-      </c>
-      <c r="J30" s="39">
-        <v>-2.9596542538649239E-5</v>
-      </c>
-      <c r="K30" s="39">
-        <v>8.5704004460780952E-5</v>
-      </c>
-      <c r="L30" s="39">
-        <v>1.4813600698444914E-4</v>
-      </c>
-      <c r="M30" s="39">
-        <v>-2.037981801874221E-5</v>
-      </c>
-      <c r="N30" s="39">
-        <v>3.8583381001402756E-5</v>
-      </c>
-      <c r="O30" s="39">
-        <v>6.1238971556992999E-4</v>
-      </c>
-      <c r="P30" s="39">
-        <v>-5.1129780976975241E-4</v>
-      </c>
-      <c r="Q30" s="39">
-        <v>-3.7131634904691941E-4</v>
-      </c>
-      <c r="R30" s="39">
-        <v>1.8876356461914684E-4</v>
-      </c>
-      <c r="S30" s="39">
-        <v>-2.3777458198786594E-4</v>
-      </c>
-      <c r="T30" s="39">
-        <v>-4.6463624001972983E-4</v>
-      </c>
-      <c r="U30" s="39">
-        <v>1.6546187658474142E-5</v>
-      </c>
-      <c r="V30" s="39">
-        <v>8.3010808597582539E-4</v>
-      </c>
-      <c r="W30" s="39">
-        <v>2.3591803302801159E-4</v>
-      </c>
-      <c r="X30" s="39">
-        <v>2.9029289260746323E-3</v>
-      </c>
-      <c r="Y30" s="39">
-        <v>2.9346374359400223E-3</v>
-      </c>
-      <c r="Z30" s="39">
-        <v>2.9929842405031506E-3</v>
-      </c>
-      <c r="AA30" s="39">
-        <v>2.9849196607549342E-3</v>
-      </c>
-      <c r="AB30" s="39">
-        <v>2.966128653006181E-3</v>
-      </c>
-      <c r="AC30" s="39">
-        <v>2.9862553926213531E-3</v>
-      </c>
-      <c r="AD30" s="39">
-        <v>2.9323168535250717E-3</v>
-      </c>
-      <c r="AE30" s="39">
-        <v>5.8059940713909549E-3</v>
-      </c>
-      <c r="AF30" s="39">
-        <v>2.9876862408966046E-3</v>
-      </c>
-      <c r="AG30" s="39">
-        <v>2.9340311012520286E-3</v>
-      </c>
-      <c r="AH30" s="39">
-        <v>3.1756636405932044E-3</v>
-      </c>
-      <c r="AI30" s="39">
-        <v>-5.4733828954615961E-3</v>
-      </c>
+      <c r="A30" s="33"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="52">
-        <v>-0.20160649267042377</v>
-      </c>
-      <c r="C31" s="39">
-        <v>4.7464070609213455E-6</v>
-      </c>
-      <c r="D31" s="39">
-        <v>2.337275598974294E-7</v>
-      </c>
-      <c r="E31" s="39">
-        <v>-1.0797123445298578E-4</v>
-      </c>
-      <c r="F31" s="39">
-        <v>1.2614414125478968E-4</v>
-      </c>
-      <c r="G31" s="39">
-        <v>1.8893423234349848E-4</v>
-      </c>
-      <c r="H31" s="39">
-        <v>2.4797648451849652E-4</v>
-      </c>
-      <c r="I31" s="39">
-        <v>-1.0623625278437509E-4</v>
-      </c>
-      <c r="J31" s="39">
-        <v>2.7729024383901194E-5</v>
-      </c>
-      <c r="K31" s="39">
-        <v>-3.7140152473436917E-4</v>
-      </c>
-      <c r="L31" s="39">
-        <v>-2.3415121909542078E-4</v>
-      </c>
-      <c r="M31" s="39">
-        <v>-4.3998286914800813E-4</v>
-      </c>
-      <c r="N31" s="39">
-        <v>-3.9891601643087405E-4</v>
-      </c>
-      <c r="O31" s="39">
-        <v>3.9214785214573421E-4</v>
-      </c>
-      <c r="P31" s="39">
-        <v>-9.145606478669294E-4</v>
-      </c>
-      <c r="Q31" s="39">
-        <v>-2.9024462244426437E-4</v>
-      </c>
-      <c r="R31" s="39">
-        <v>4.3080984455878661E-4</v>
-      </c>
-      <c r="S31" s="39">
-        <v>-8.0048974935962355E-5</v>
-      </c>
-      <c r="T31" s="39">
-        <v>-4.5435808767118322E-4</v>
-      </c>
-      <c r="U31" s="39">
-        <v>3.0762965734642145E-6</v>
-      </c>
-      <c r="V31" s="39">
-        <v>6.9546063149942021E-4</v>
-      </c>
-      <c r="W31" s="39">
-        <v>3.118304921684756E-4</v>
-      </c>
-      <c r="X31" s="39">
-        <v>2.9617632671895171E-3</v>
-      </c>
-      <c r="Y31" s="39">
-        <v>2.9677245466171913E-3</v>
-      </c>
-      <c r="Z31" s="39">
-        <v>3.0128546967383612E-3</v>
-      </c>
-      <c r="AA31" s="39">
-        <v>2.9873180015340503E-3</v>
-      </c>
-      <c r="AB31" s="39">
-        <v>2.9609913047761718E-3</v>
-      </c>
-      <c r="AC31" s="39">
-        <v>2.9864175176090536E-3</v>
-      </c>
-      <c r="AD31" s="39">
-        <v>2.9298652625820731E-3</v>
-      </c>
-      <c r="AE31" s="39">
-        <v>2.9876862408966046E-3</v>
-      </c>
-      <c r="AF31" s="39">
-        <v>8.1143342197552235E-3</v>
-      </c>
-      <c r="AG31" s="39">
-        <v>2.9558547165557535E-3</v>
-      </c>
-      <c r="AH31" s="39">
-        <v>3.2638120981563767E-3</v>
-      </c>
-      <c r="AI31" s="39">
-        <v>-3.1785131854368195E-3</v>
-      </c>
+      <c r="A31" s="33"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="52">
-        <v>-0.22608342763522951</v>
-      </c>
-      <c r="C32" s="39">
-        <v>1.0893310911309385E-5</v>
-      </c>
-      <c r="D32" s="39">
-        <v>3.5247901951240986E-8</v>
-      </c>
-      <c r="E32" s="39">
-        <v>6.4850036997066412E-5</v>
-      </c>
-      <c r="F32" s="39">
-        <v>1.3406163850721454E-4</v>
-      </c>
-      <c r="G32" s="39">
-        <v>1.7755542148847929E-4</v>
-      </c>
-      <c r="H32" s="39">
-        <v>2.2905757395878183E-4</v>
-      </c>
-      <c r="I32" s="39">
-        <v>-6.1459656527324512E-5</v>
-      </c>
-      <c r="J32" s="39">
-        <v>8.9502947246556243E-7</v>
-      </c>
-      <c r="K32" s="39">
-        <v>1.3918501806129292E-4</v>
-      </c>
-      <c r="L32" s="39">
-        <v>1.8329255690835433E-4</v>
-      </c>
-      <c r="M32" s="39">
-        <v>1.1182137357833213E-4</v>
-      </c>
-      <c r="N32" s="39">
-        <v>7.642828658389585E-5</v>
-      </c>
-      <c r="O32" s="39">
-        <v>3.7198135116832691E-4</v>
-      </c>
-      <c r="P32" s="39">
-        <v>-5.7824450036673362E-4</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>-2.973751702225521E-4</v>
-      </c>
-      <c r="R32" s="39">
-        <v>3.7144042652578318E-4</v>
-      </c>
-      <c r="S32" s="39">
-        <v>-1.1151507949401095E-4</v>
-      </c>
-      <c r="T32" s="39">
-        <v>-3.4305953241037831E-4</v>
-      </c>
-      <c r="U32" s="39">
-        <v>7.8625302143409386E-6</v>
-      </c>
-      <c r="V32" s="39">
-        <v>8.4697093308722907E-4</v>
-      </c>
-      <c r="W32" s="39">
-        <v>2.8940782475863627E-4</v>
-      </c>
-      <c r="X32" s="39">
-        <v>2.900824039418823E-3</v>
-      </c>
-      <c r="Y32" s="39">
-        <v>2.9054444198376951E-3</v>
-      </c>
-      <c r="Z32" s="39">
-        <v>2.9755206571037279E-3</v>
-      </c>
-      <c r="AA32" s="39">
-        <v>2.9322267345891035E-3</v>
-      </c>
-      <c r="AB32" s="39">
-        <v>2.9205711287314312E-3</v>
-      </c>
-      <c r="AC32" s="39">
-        <v>2.9526039882939617E-3</v>
-      </c>
-      <c r="AD32" s="39">
-        <v>2.8851915350430832E-3</v>
-      </c>
-      <c r="AE32" s="39">
-        <v>2.9340311012520286E-3</v>
-      </c>
-      <c r="AF32" s="39">
-        <v>2.9558547165557535E-3</v>
-      </c>
-      <c r="AG32" s="39">
-        <v>6.7166113385559983E-3</v>
-      </c>
-      <c r="AH32" s="39">
-        <v>3.1200128486143278E-3</v>
-      </c>
-      <c r="AI32" s="39">
-        <v>-3.9673297154065555E-3</v>
-      </c>
+      <c r="A32" s="33"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="52">
-        <v>1.4678042124322448E-3</v>
-      </c>
-      <c r="C33" s="39">
-        <v>2.4096227974624781E-5</v>
-      </c>
-      <c r="D33" s="39">
-        <v>1.9054225922941824E-7</v>
-      </c>
-      <c r="E33" s="39">
-        <v>1.7129593146574884E-5</v>
-      </c>
-      <c r="F33" s="39">
-        <v>2.2725391436257845E-4</v>
-      </c>
-      <c r="G33" s="39">
-        <v>1.8933409528611156E-4</v>
-      </c>
-      <c r="H33" s="39">
-        <v>3.2847805032851219E-4</v>
-      </c>
-      <c r="I33" s="39">
-        <v>-1.1583107681161989E-4</v>
-      </c>
-      <c r="J33" s="39">
-        <v>2.4302657510643478E-5</v>
-      </c>
-      <c r="K33" s="39">
-        <v>1.5604425095317679E-4</v>
-      </c>
-      <c r="L33" s="39">
-        <v>2.5616734716928102E-4</v>
-      </c>
-      <c r="M33" s="39">
-        <v>-1.3950563192923794E-4</v>
-      </c>
-      <c r="N33" s="39">
-        <v>-1.2117024651872458E-4</v>
-      </c>
-      <c r="O33" s="39">
-        <v>3.710195101673335E-4</v>
-      </c>
-      <c r="P33" s="39">
-        <v>-1.2154630310183289E-3</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>-1.5791173666172983E-4</v>
-      </c>
-      <c r="R33" s="39">
-        <v>6.9648639231141693E-4</v>
-      </c>
-      <c r="S33" s="39">
-        <v>-2.3712881634466621E-4</v>
-      </c>
-      <c r="T33" s="39">
-        <v>-3.266056847825629E-4</v>
-      </c>
-      <c r="U33" s="39">
-        <v>-1.8469213932363593E-5</v>
-      </c>
-      <c r="V33" s="39">
-        <v>1.0952349147272747E-3</v>
-      </c>
-      <c r="W33" s="39">
-        <v>3.8406734242437746E-4</v>
-      </c>
-      <c r="X33" s="39">
-        <v>3.1358985546639556E-3</v>
-      </c>
-      <c r="Y33" s="39">
-        <v>3.1305112094145255E-3</v>
-      </c>
-      <c r="Z33" s="39">
-        <v>3.2088192659836365E-3</v>
-      </c>
-      <c r="AA33" s="39">
-        <v>3.1302910519543201E-3</v>
-      </c>
-      <c r="AB33" s="39">
-        <v>3.1233967065928576E-3</v>
-      </c>
-      <c r="AC33" s="39">
-        <v>3.014630473189563E-3</v>
-      </c>
-      <c r="AD33" s="39">
-        <v>3.0628108419657532E-3</v>
-      </c>
-      <c r="AE33" s="39">
-        <v>3.1756636405932044E-3</v>
-      </c>
-      <c r="AF33" s="39">
-        <v>3.2638120981563767E-3</v>
-      </c>
-      <c r="AG33" s="39">
-        <v>3.1200128486143278E-3</v>
-      </c>
-      <c r="AH33" s="39">
-        <v>1.1213687567629225E-2</v>
-      </c>
-      <c r="AI33" s="39">
-        <v>-2.9980172524694468E-3</v>
-      </c>
+      <c r="A33" s="33"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="52">
-        <v>-3.5628548327620774E-2</v>
-      </c>
-      <c r="C34" s="39">
-        <v>-1.478986726469779E-2</v>
-      </c>
-      <c r="D34" s="39">
-        <v>2.1199589781929133E-4</v>
-      </c>
-      <c r="E34" s="39">
-        <v>-1.8979798097447532E-3</v>
-      </c>
-      <c r="F34" s="39">
-        <v>-8.3698179965877202E-4</v>
-      </c>
-      <c r="G34" s="39">
-        <v>-2.0384856293633249E-4</v>
-      </c>
-      <c r="H34" s="39">
-        <v>-1.2803948485705131E-3</v>
-      </c>
-      <c r="I34" s="39">
-        <v>1.1968647600404999E-3</v>
-      </c>
-      <c r="J34" s="39">
-        <v>-2.9157923204674654E-4</v>
-      </c>
-      <c r="K34" s="39">
-        <v>-8.6171317013568269E-3</v>
-      </c>
-      <c r="L34" s="39">
-        <v>-1.0228068240705816E-2</v>
-      </c>
-      <c r="M34" s="39">
-        <v>-9.7829545440705629E-3</v>
-      </c>
-      <c r="N34" s="39">
-        <v>-8.3715814431749788E-3</v>
-      </c>
-      <c r="O34" s="39">
-        <v>-8.1424348417036274E-4</v>
-      </c>
-      <c r="P34" s="39">
-        <v>-9.9667107228832656E-4</v>
-      </c>
-      <c r="Q34" s="39">
-        <v>-5.4148152986244619E-3</v>
-      </c>
-      <c r="R34" s="39">
-        <v>-8.9351999270653672E-4</v>
-      </c>
-      <c r="S34" s="39">
-        <v>-1.9975385660724182E-3</v>
-      </c>
-      <c r="T34" s="39">
-        <v>-1.0716328854082652E-3</v>
-      </c>
-      <c r="U34" s="39">
-        <v>-1.585175361646915E-3</v>
-      </c>
-      <c r="V34" s="39">
-        <v>-6.6932489071419334E-3</v>
-      </c>
-      <c r="W34" s="39">
-        <v>-2.4175696041746544E-3</v>
-      </c>
-      <c r="X34" s="39">
-        <v>-1.6600398068475318E-3</v>
-      </c>
-      <c r="Y34" s="39">
-        <v>-3.18927507303381E-3</v>
-      </c>
-      <c r="Z34" s="39">
-        <v>-4.2382094228424726E-3</v>
-      </c>
-      <c r="AA34" s="39">
-        <v>-4.8606608502679283E-3</v>
-      </c>
-      <c r="AB34" s="39">
-        <v>-3.4417080791951139E-3</v>
-      </c>
-      <c r="AC34" s="39">
-        <v>-1.7446179422632123E-3</v>
-      </c>
-      <c r="AD34" s="39">
-        <v>-3.0071137689077938E-3</v>
-      </c>
-      <c r="AE34" s="39">
-        <v>-5.4733828954615961E-3</v>
-      </c>
-      <c r="AF34" s="39">
-        <v>-3.1785131854368195E-3</v>
-      </c>
-      <c r="AG34" s="39">
-        <v>-3.9673297154065555E-3</v>
-      </c>
-      <c r="AH34" s="39">
-        <v>-2.9980172524694468E-3</v>
-      </c>
-      <c r="AI34" s="39">
-        <v>0.36227238918771021</v>
-      </c>
+      <c r="A34" s="33"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5127,20 +3965,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A453670F-6777-4D00-B96C-1A8D1BB5E25A}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5150,230 +3992,166 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="38">
-        <v>-0.33960670941575699</v>
+        <v>-7.1615600000000001E-2</v>
       </c>
       <c r="C4" s="38">
-        <v>0.12490057670414564</v>
+        <v>5.8690699999999998E-2</v>
       </c>
       <c r="D4" s="38">
-        <v>6.5476372730241547E-3</v>
-      </c>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>96</v>
+        <v>0.222</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="55"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0.16454969999999999</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.1104349</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="55"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5" s="56"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B6" s="38">
-        <v>0.88479978427652239</v>
+        <v>1.3452299999999999</v>
       </c>
       <c r="C6" s="38">
-        <v>0.99923105141751911</v>
+        <v>0.36619370000000001</v>
       </c>
       <c r="D6" s="38">
-        <v>0.37589743875868081</v>
-      </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B7" s="38">
-        <v>6.1219988382108001E-2</v>
+        <v>-1.7481</v>
       </c>
       <c r="C7" s="38">
-        <v>1.0513052391338926</v>
+        <v>0.36615180000000003</v>
       </c>
       <c r="D7" s="38">
-        <v>0.95356354245039598</v>
-      </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="38">
-        <v>0.24989837356315606</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0.23409284332900371</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0.28573789418922751</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="38">
-        <v>1.2380638540009201</v>
-      </c>
-      <c r="C9" s="38">
-        <v>0.93822240116557687</v>
-      </c>
-      <c r="D9" s="38">
-        <v>0.18697373945815043</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="55"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="48">
+        <v>0.27336929999999998</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1.4355990000000001</v>
+      </c>
+      <c r="D8" s="48">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="55"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="5">
+        <v>903</v>
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="38">
-        <v>0.53671399120747232</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0.91063030541026557</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0.55560145406982775</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="38">
-        <v>2.2782839175763558</v>
-      </c>
-      <c r="C12" s="38">
-        <v>0.97373782143668142</v>
-      </c>
-      <c r="D12" s="38">
-        <v>1.929766802175981E-2</v>
-      </c>
+    <row r="12" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
       <c r="G12" s="34"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="38">
-        <v>-2.1080834107145261</v>
-      </c>
-      <c r="C13" s="38">
-        <v>0.83014767654002519</v>
-      </c>
-      <c r="D13" s="38">
-        <v>1.1104033720332529E-2</v>
-      </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="38">
-        <v>0.89765911136964793</v>
-      </c>
-      <c r="C14" s="38">
-        <v>0.89841576416890534</v>
-      </c>
-      <c r="D14" s="38">
-        <v>0.31771825877812032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="48">
-        <v>5.9587439558141169</v>
-      </c>
-      <c r="C15" s="48">
-        <v>2.7273495537366457</v>
-      </c>
-      <c r="D15" s="48">
-        <v>2.8902689701177115E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.48820000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="46">
-        <v>0.44319999999999998</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5382,53 +4160,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53607F17-5127-45F3-B4CE-11CD897B185B}">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:H37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" style="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="10" width="9.140625" style="1"/>
+    <col min="11" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
@@ -5440,1236 +4208,1071 @@
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="35">
-        <v>6.5709510699718338E-2</v>
+        <v>0.2374754</v>
       </c>
       <c r="C4" s="35">
-        <v>3.0247834997965212E-2</v>
+        <v>2.26914E-2</v>
       </c>
       <c r="D4" s="35">
-        <v>2.9827712669409444E-2</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="55"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="35">
-        <v>-2.3170837213301377E-3</v>
+        <v>-4.3968999999999996E-3</v>
       </c>
       <c r="C5" s="35">
-        <v>4.4666074013394858E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="D5" s="35">
-        <v>2.1305619514465432E-7</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="55"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="35">
+        <v>-4.7021300000000002E-2</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1.5432E-2</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2E-3</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="35">
-        <v>-0.33029736363471729</v>
-      </c>
-      <c r="C7" s="35">
-        <v>6.4032597037141009E-2</v>
-      </c>
-      <c r="D7" s="35">
-        <v>2.4924329179664005E-7</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="36"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="55"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="36">
+        <v>1.2012929999999999</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3.3875700000000002E-2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="35">
-        <v>-0.35426681142985922</v>
-      </c>
-      <c r="C8" s="35">
-        <v>6.7005686709309689E-2</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1.2426011941524928E-7</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="36"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="55"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="55"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B9" s="35">
-        <v>-0.27570851288760567</v>
+        <v>0.1453189</v>
       </c>
       <c r="C9" s="35">
-        <v>6.8997520848981975E-2</v>
+        <v>0.10423490000000001</v>
       </c>
       <c r="D9" s="35">
-        <v>6.4443734124758603E-5</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="36"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="55"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="35">
-        <v>-7.0193992762373425E-2</v>
-      </c>
-      <c r="C10" s="35">
-        <v>7.2464084693776659E-2</v>
-      </c>
-      <c r="D10" s="35">
-        <v>0.33270843378826426</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0.12760630000000001</v>
+      </c>
+      <c r="C10" s="36">
+        <v>9.5999699999999993E-2</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.184</v>
+      </c>
+      <c r="G10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="35">
-        <v>-0.28192176752934023</v>
-      </c>
-      <c r="C11" s="35">
-        <v>2.361763035776885E-2</v>
-      </c>
-      <c r="D11" s="35">
-        <v>7.5984963712099115E-33</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="36"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="55"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0.19810620000000001</v>
+      </c>
+      <c r="C11" s="36">
+        <v>9.5120499999999997E-2</v>
+      </c>
+      <c r="D11" s="36">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="36">
-        <v>0.82356441482310672</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3.1934498303334863E-2</v>
-      </c>
-      <c r="D12" s="36">
-        <v>1.1727668330144215E-146</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="36"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="55"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0.25549179999999999</v>
+      </c>
+      <c r="C12" s="35">
+        <v>9.7657499999999994E-2</v>
+      </c>
+      <c r="D12" s="35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G12" s="36"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="55"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="55"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B14" s="35">
-        <v>6.7283548823906233E-2</v>
+        <v>-0.69394440000000002</v>
       </c>
       <c r="C14" s="35">
-        <v>0.1113371068607607</v>
+        <v>4.5217300000000002E-2</v>
       </c>
       <c r="D14" s="35">
-        <v>0.54562907063068433</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="55"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="36">
-        <v>0.10515520323572274</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0.10184295031775716</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0.30182711141836294</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="35">
+        <v>-0.43630219999999997</v>
+      </c>
+      <c r="C15" s="35">
+        <v>7.5415999999999997E-2</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="36">
-        <v>0.18393935487452034</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0.10123661526274939</v>
-      </c>
-      <c r="D16" s="36">
-        <v>6.9228571342536793E-2</v>
+      <c r="J15" s="33"/>
+      <c r="K15" s="55"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="35">
+        <v>1.62267E-2</v>
+      </c>
+      <c r="C16" s="35">
+        <v>4.5406999999999999E-3</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="35">
-        <v>0.26883169233644799</v>
-      </c>
-      <c r="C17" s="35">
-        <v>0.10408547459102901</v>
-      </c>
-      <c r="D17" s="35">
-        <v>9.8002857395901866E-3</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="36"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="55"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="G17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="36"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="55"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="36">
+        <v>-0.46104919999999999</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.1000172</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J18" s="33"/>
+      <c r="K18" s="55"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B19" s="35">
-        <v>-0.68427458388484175</v>
+        <v>7.6795100000000005E-2</v>
       </c>
       <c r="C19" s="35">
-        <v>0.10789803628477955</v>
+        <v>3.7475500000000002E-2</v>
       </c>
       <c r="D19" s="35">
-        <v>2.2700287242232393E-10</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="36"/>
+        <v>0.04</v>
+      </c>
+      <c r="G19" s="36"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="35">
-        <v>-0.57800611766146326</v>
-      </c>
-      <c r="C20" s="35">
-        <v>0.14045415691888236</v>
-      </c>
-      <c r="D20" s="35">
-        <v>3.8673434219261222E-5</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="36"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="55"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="36"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="55"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="35">
+        <v>-0.1487069</v>
+      </c>
+      <c r="C21" s="35">
+        <v>8.7250400000000006E-2</v>
+      </c>
+      <c r="D21" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G21" s="36"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J21" s="33"/>
+      <c r="K21" s="55"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B22" s="35">
-        <v>0.13333148680987397</v>
+        <v>3.55713E-2</v>
       </c>
       <c r="C22" s="35">
-        <v>0.10895174009002698</v>
+        <v>6.1161500000000001E-2</v>
       </c>
       <c r="D22" s="35">
-        <v>0.22104033495816383</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="36"/>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
+      <c r="J22" s="33"/>
+      <c r="K22" s="55"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="35">
-        <v>0.25194167054653288</v>
+        <v>-9.6190700000000004E-2</v>
       </c>
       <c r="C23" s="35">
-        <v>0.13663359710946349</v>
+        <v>6.7777199999999996E-2</v>
       </c>
       <c r="D23" s="35">
-        <v>6.51945351743589E-2</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="36"/>
+        <v>0.156</v>
+      </c>
+      <c r="G23" s="36"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="36"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="55"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="35">
+        <v>9.5991400000000004E-2</v>
+      </c>
+      <c r="C24" s="35">
+        <v>6.6697900000000004E-2</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="G24" s="36"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="36">
-        <v>-0.18083600461850163</v>
-      </c>
-      <c r="C25" s="36">
-        <v>3.6636190813812759E-2</v>
-      </c>
-      <c r="D25" s="36">
-        <v>7.9743708505335179E-7</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="36"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="55"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="35">
+        <v>0.1027301</v>
+      </c>
+      <c r="C25" s="35">
+        <v>6.8036399999999997E-2</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G25" s="36"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
+      <c r="J25" s="33"/>
+      <c r="K25" s="55"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B26" s="35">
-        <v>-6.8801738621908026E-2</v>
+        <v>2.9812000000000002E-2</v>
       </c>
       <c r="C26" s="35">
-        <v>7.9862083648666288E-2</v>
+        <v>6.6018599999999997E-2</v>
       </c>
       <c r="D26" s="35">
-        <v>0.38895890524725935</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="36"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G26" s="36"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
+      <c r="J26" s="33"/>
+      <c r="K26" s="55"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="35">
-        <v>2.7156718711365056E-3</v>
+        <v>6.0778899999999997E-2</v>
       </c>
       <c r="C27" s="35">
-        <v>5.2358439864725326E-3</v>
+        <v>6.0130900000000001E-2</v>
       </c>
       <c r="D27" s="35">
-        <v>0.60399132903116293</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="36"/>
+        <v>0.312</v>
+      </c>
+      <c r="G27" s="36"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="36"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="55"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="35">
+        <v>8.0727699999999999E-2</v>
+      </c>
+      <c r="C28" s="35">
+        <v>6.7380099999999998E-2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G28" s="36"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="36">
-        <v>-0.40659524048855933</v>
-      </c>
-      <c r="C29" s="36">
-        <v>0.14049873651969311</v>
-      </c>
-      <c r="D29" s="36">
-        <v>3.8043803193839867E-3</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="36"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="55"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="35">
+        <v>-9.7901699999999994E-2</v>
+      </c>
+      <c r="C29" s="35">
+        <v>7.9644599999999996E-2</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.219</v>
+      </c>
+      <c r="G29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -6680,45 +5283,21 @@
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="35">
-        <v>-0.1510852680398726</v>
+        <v>-8.1676499999999999E-2</v>
       </c>
       <c r="C30" s="35">
-        <v>4.7316176714061499E-2</v>
+        <v>7.3620599999999994E-2</v>
       </c>
       <c r="D30" s="35">
-        <v>1.407543566693241E-3</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="36"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -6729,184 +5308,85 @@
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="36"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="35">
+        <v>0.1583137</v>
+      </c>
+      <c r="C31" s="35">
+        <v>8.8811799999999996E-2</v>
+      </c>
+      <c r="D31" s="35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="35">
-        <v>-0.29290410782400789</v>
-      </c>
-      <c r="C32" s="35">
-        <v>9.9689888388572803E-2</v>
-      </c>
-      <c r="D32" s="35">
-        <v>3.3017443006450441E-3</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="36"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="50">
+        <v>-5.4270430000000003</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0.45471850000000003</v>
+      </c>
+      <c r="D32" s="50">
+        <v>0</v>
+      </c>
+      <c r="G32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="35">
-        <v>-6.5548992743657108E-2</v>
-      </c>
-      <c r="C33" s="35">
-        <v>7.030685186834508E-2</v>
-      </c>
-      <c r="D33" s="35">
-        <v>0.35116743729677702</v>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5">
+        <v>25705</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="L33" s="57"/>
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="35">
-        <v>-0.2230384287961393</v>
-      </c>
-      <c r="C34" s="35">
-        <v>7.8584940255741309E-2</v>
-      </c>
-      <c r="D34" s="35">
-        <v>4.537118474720811E-3</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.1232</v>
+      </c>
+      <c r="G34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -6917,45 +5397,17 @@
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="35">
-        <v>-1.0854357526938451E-2</v>
-      </c>
-      <c r="C35" s="35">
-        <v>7.5581454414561877E-2</v>
-      </c>
-      <c r="D35" s="35">
-        <v>0.88580734806578154</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="36"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="46">
+        <v>0.26939999999999997</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="G35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -6966,203 +5418,16 @@
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="35">
-        <v>7.2868636194702808E-3</v>
-      </c>
-      <c r="C36" s="35">
-        <v>7.6519178576246391E-2</v>
-      </c>
-      <c r="D36" s="35">
-        <v>0.92413274122421518</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="35">
-        <v>9.5046410148126679E-3</v>
-      </c>
-      <c r="C37" s="35">
-        <v>7.5353811074564833E-2</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0.89962623866102087</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="35">
-        <v>-1.2738764094608114E-2</v>
-      </c>
-      <c r="C38" s="35">
-        <v>6.8963107799243847E-2</v>
-      </c>
-      <c r="D38" s="35">
-        <v>0.85344980919817959</v>
-      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="35">
-        <v>-3.6198882443431286E-2</v>
-      </c>
-      <c r="C39" s="35">
-        <v>7.6197073903076853E-2</v>
-      </c>
-      <c r="D39" s="35">
-        <v>0.63473765543093363</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="35">
-        <v>-0.20160649267042377</v>
-      </c>
-      <c r="C40" s="35">
-        <v>9.0079599353878256E-2</v>
-      </c>
-      <c r="D40" s="35">
-        <v>2.5215011379527256E-2</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="35">
-        <v>-0.22608342763522951</v>
-      </c>
-      <c r="C41" s="35">
-        <v>8.1954934802951296E-2</v>
-      </c>
-      <c r="D41" s="35">
-        <v>5.8044027127582198E-3</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="35">
-        <v>1.4678042124322448E-3</v>
-      </c>
-      <c r="C42" s="35">
-        <v>0.10589470037555811</v>
-      </c>
-      <c r="D42" s="35">
-        <v>0.98894089302727672</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="50">
-        <v>-3.5628548327620774E-2</v>
-      </c>
-      <c r="C43" s="50">
-        <v>0.60189067876792224</v>
-      </c>
-      <c r="D43" s="50">
-        <v>0.95279728223967097</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="5">
-        <v>91913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="46">
-        <v>0.28339999999999999</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-    </row>
-    <row r="47" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7237,16 +5502,16 @@
         <v>56</v>
       </c>
       <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
       </c>
       <c r="W1" t="s">
         <v>21</v>
@@ -8390,7 +6655,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="26">
         <v>-9.6741944726603066E-2</v>
@@ -8461,7 +6726,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="26">
         <v>-6.0872854069962089E-3</v>
@@ -8532,7 +6797,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="26">
         <v>-0.15260607200300971</v>
@@ -8603,7 +6868,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="26">
         <v>-3.5939579858521337E-2</v>
@@ -8769,31 +7034,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="I1" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="I1" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -9282,7 +7547,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -9293,7 +7558,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="14">
         <v>-9.6741944726603066E-2</v>
@@ -9316,7 +7581,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="14">
         <v>-6.0872854069962089E-3</v>
@@ -9339,7 +7604,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="14">
         <v>-0.15260607200300971</v>
@@ -9362,7 +7627,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="14">
         <v>-3.5939579858521337E-2</v>
@@ -9416,7 +7681,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="24">
         <v>977.41</v>

--- a/input/reg_fertility.xlsx
+++ b/input/reg_fertility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE61980-DBEF-411D-AFC3-58FA1C1D977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E33B68-94A4-4617-8EA5-34898B43982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" activeTab="4" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="923" activeTab="2" xr2:uid="{D09019D8-72C7-4A98-800C-3D2041C295B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -617,6 +617,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,11 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1027,11 +1027,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30592DDE-4BE8-4F4D-A8EA-193601ACEF35}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1039,7 +1037,7 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
@@ -1061,13 +1059,8 @@
       <c r="G1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
@@ -1089,13 +1082,8 @@
       <c r="G2" s="39">
         <v>-8.3313291073645698E-2</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>53</v>
       </c>
@@ -1117,13 +1105,8 @@
       <c r="G3" s="39">
         <v>-7.0574218094737351E-2</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>116</v>
       </c>
@@ -1145,13 +1128,8 @@
       <c r="G4" s="39">
         <v>7.9088722743591355E-2</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>98</v>
       </c>
@@ -1173,13 +1151,8 @@
       <c r="G5" s="39">
         <v>-0.3068465158020165</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
@@ -1201,81 +1174,6 @@
       <c r="G6" s="39">
         <v>2.0609442643847387</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,11 +1182,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AB818-AA51-44DD-B5F0-886E9C5C0B09}">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1296,7 +1192,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1378,16 +1274,8 @@
       <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1469,16 +1357,8 @@
       <c r="AA2" s="39">
         <v>-7.6936857114723034E-3</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1560,16 +1440,8 @@
       <c r="AA3" s="39">
         <v>1.1484788171563251E-4</v>
       </c>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -1651,16 +1523,8 @@
       <c r="AA4" s="39">
         <v>-1.6275266489260978E-4</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
@@ -1742,16 +1606,8 @@
       <c r="AA5" s="39">
         <v>2.3159357036057638E-3</v>
       </c>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
@@ -1833,16 +1689,8 @@
       <c r="AA6" s="39">
         <v>-8.7147350439445801E-3</v>
       </c>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -1924,16 +1772,8 @@
       <c r="AA7" s="39">
         <v>-1.0592124705671543E-2</v>
       </c>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>104</v>
       </c>
@@ -2015,16 +1855,8 @@
       <c r="AA8" s="39">
         <v>-1.0684829849452168E-2</v>
       </c>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>103</v>
       </c>
@@ -2106,16 +1938,8 @@
       <c r="AA9" s="39">
         <v>-1.009477715903654E-2</v>
       </c>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
@@ -2197,16 +2021,8 @@
       <c r="AA10" s="39">
         <v>-6.7763058106781061E-3</v>
       </c>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -2288,16 +2104,8 @@
       <c r="AA11" s="39">
         <v>-1.5891993783638805E-3</v>
       </c>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2379,16 +2187,8 @@
       <c r="AA12" s="39">
         <v>-1.1190409346650998E-3</v>
       </c>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2470,16 +2270,8 @@
       <c r="AA13" s="39">
         <v>-1.3926907897062989E-2</v>
       </c>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -2561,16 +2353,8 @@
       <c r="AA14" s="39">
         <v>-1.0614286773613279E-3</v>
       </c>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2652,16 +2436,8 @@
       <c r="AA15" s="39">
         <v>-5.3973726331169036E-4</v>
       </c>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2743,16 +2519,8 @@
       <c r="AA16" s="39">
         <v>-3.7774663065483784E-3</v>
       </c>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -2834,16 +2602,8 @@
       <c r="AA17" s="39">
         <v>-3.5581887626707741E-3</v>
       </c>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>65</v>
       </c>
@@ -2925,16 +2685,8 @@
       <c r="AA18" s="39">
         <v>-3.379697167997301E-3</v>
       </c>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>66</v>
       </c>
@@ -3016,16 +2768,8 @@
       <c r="AA19" s="39">
         <v>-3.7870882298073867E-3</v>
       </c>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -3107,16 +2851,8 @@
       <c r="AA20" s="39">
         <v>-2.9085008791050913E-3</v>
       </c>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>68</v>
       </c>
@@ -3198,16 +2934,8 @@
       <c r="AA21" s="39">
         <v>-3.0537891461400119E-3</v>
       </c>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>69</v>
       </c>
@@ -3289,16 +3017,8 @@
       <c r="AA22" s="39">
         <v>-4.5725766189058208E-3</v>
       </c>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>70</v>
       </c>
@@ -3380,16 +3100,8 @@
       <c r="AA23" s="39">
         <v>-2.3396576475517615E-3</v>
       </c>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>71</v>
       </c>
@@ -3471,16 +3183,8 @@
       <c r="AA24" s="39">
         <v>-3.150770215374233E-3</v>
       </c>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>72</v>
       </c>
@@ -3562,16 +3266,8 @@
       <c r="AA25" s="39">
         <v>-2.3193414581284492E-3</v>
       </c>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>21</v>
       </c>
@@ -3653,310 +3349,6 @@
       <c r="AA26" s="39">
         <v>0.20676892669500641</v>
       </c>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4026,13 +3418,13 @@
         <v>0.222</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="55"/>
+      <c r="G4" s="52"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="N4" s="56"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -4048,13 +3440,13 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="52"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="N5" s="56"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -4069,7 +3461,7 @@
       <c r="D6" s="38">
         <v>0</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="52"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -4090,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34"/>
-      <c r="G7" s="55"/>
+      <c r="G7" s="52"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -4111,7 +3503,7 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="F8" s="34"/>
-      <c r="G8" s="55"/>
+      <c r="G8" s="52"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -4162,7 +3554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53607F17-5127-45F3-B4CE-11CD897B185B}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4225,7 +3617,7 @@
       <c r="G4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="55"/>
+      <c r="K4" s="52"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -4268,7 +3660,7 @@
       <c r="G5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="55"/>
+      <c r="K5" s="52"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -4312,7 +3704,7 @@
       <c r="G6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="52"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -4355,7 +3747,7 @@
       <c r="G7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="52"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -4392,7 +3784,7 @@
       <c r="G8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="52"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4435,7 +3827,7 @@
       <c r="G9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -4478,7 +3870,7 @@
       <c r="G10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="52"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -4521,7 +3913,7 @@
       <c r="G11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="52"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -4564,7 +3956,7 @@
       <c r="G12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="52"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -4601,7 +3993,7 @@
       <c r="G13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="52"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -4644,7 +4036,7 @@
       <c r="G14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="52"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -4687,7 +4079,7 @@
       <c r="G15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="52"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -4731,7 +4123,7 @@
       <c r="G16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="33"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="52"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -4768,7 +4160,7 @@
       <c r="G17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="52"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
@@ -4811,7 +4203,7 @@
       <c r="G18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="52"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -4854,7 +4246,7 @@
       <c r="G19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="52"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -4888,7 +4280,7 @@
       <c r="G20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="52"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -4931,7 +4323,7 @@
       <c r="G21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="33"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="52"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -4974,7 +4366,7 @@
       <c r="G22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="52"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -5017,7 +4409,7 @@
       <c r="G23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="52"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -5060,7 +4452,7 @@
       <c r="G24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="52"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -5103,7 +4495,7 @@
       <c r="G25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="52"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -5146,7 +4538,7 @@
       <c r="G26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="52"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -5189,7 +4581,7 @@
       <c r="G27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="52"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -5232,7 +4624,7 @@
       <c r="G28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="52"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -5326,7 +4718,7 @@
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="57"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
@@ -5351,7 +4743,7 @@
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="57"/>
+      <c r="L32" s="54"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
@@ -5371,7 +4763,7 @@
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="57"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
@@ -7034,31 +6426,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
